--- a/data/genius_Bushido_7.xlsx
+++ b/data/genius_Bushido_7.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,7 +407,42 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[Intro/Sample]Überall an jeder Straßenecke sehen wir TodsündenIn jeder Wohnung... und wir nehmen es hinWir tolerieren es, weil es schon zur Gewohnheit geworden istEs ist trivialWir tolerieren es morgens, mittags und nachtsNun... ab jetzt nicht mehr![Part]Ihr habt so lange drauf gewartet manDoch ich bin wieder mal zurückUnd jeder deutsche Rapper wird von mir geficktDas ist der BetonFresse, das bin typisch ichDu wirst therapiert bis du auf die Tränen Drüse drückstDie meisten Nutten sind am kotzen, weil das Album kommtWer sagt ich bin weich geworden? Ich bring die Gewalt in SongsIch renn einfach auf die Bühne rauf, wenn ich nicht darf1000 Euro Strafe, denn ich sitze im Gericht und schlaf'Sonny Black ich bin dreifach aggressivReis die Maske runter, fresse, ich hab einfach Appetit, yeahDie Patronen fallen, hörst du die Kanone knallen?Bring mir ne Rakete, und ich schieße Fettes Brot in AllIch bin der Junge der die Platten verkauft hatDer kriminelle scheiß Kanacke aus der HauptstadtSchau den Gangster an, wer ist aus dem Knast gekommen?Kletter jetzt zurück, und ich zertrete deinen PappkartonEGJ Labelboss, das ist Gangster RapFresse, ich bin King und nimm dir deine Rente wegKeiner wird hier auf der Street akzeptiertAuf der Street hast du dich mit Keep it Real krass blamiertWir verstehen deine Sprache nicht, du bist leider duLeider Schwul, leider quatscht du mich mit jeder Scheiße zuKannst du sehn, ja, die Wolken reißen aufJa, ich such ein schlechtes Vorbild und folter' einen ClownIch bin zurück, jetzt wird die Szene aufgemischtUnd für mich gehört in Sachen Rapper jeder ausgeknipstImmer noch ich, das ist Album Nummer 7Und sie wollen mir hier echt den Mund verbieten, dann fickt euchAb sofort hab ich offiziell mit jedem StreitUnd ich ficke deine Schwester, meine Tracks sind themenreichIch mach vor keinem Halt, Jungs von den Straßen sind soIhr Zecken, das war grade mal das Intro</t>
+          <t>[Intro/Sample]Überall an jeder Straßenecke sehen wir TodsündenIn jeder Wohnung... und wir nehmen es hinWir tolerieren es, weil es schon zur Gewohnheit geworden istEs ist trivialWir tolerieren es morgens, mittags und nachtsNun... ab jetzt nicht mehr!
+[Part]
+Ihr habt so lange drauf gewartet man
+Doch ich bin wieder mal zurück
+Und jeder deutsche Rapper wird von mir gefickt
+Das ist der Beton
+Fresse, das bin typisch ich
+Du wirst therapiert bis du auf die Tränen Drüse drückst
+Die meisten Nutten sind am kotzen, weil das Album kommt
+Wer sagt ich bin weich geworden? Ich bring die Gewalt in Songs
+Ich renn einfach auf die Bühne rauf, wenn ich nicht darf
+1000 Euro Strafe, denn ich sitze im Gericht und schlaf'
+Sonny Black ich bin dreifach aggressiv
+Reis die Maske runter, fresse, ich hab einfach Appetit, yeah
+Die Patronen fallen, hörst du die Kanone knallen?
+Bring mir ne Rakete, und ich schieße Fettes Brot in All
+Ich bin der Junge der die Platten verkauft hat
+Der kriminelle scheiß Kanacke aus der Hauptstadt
+Schau den Gangster an, wer ist aus dem Knast gekommen?
+Kletter jetzt zurück, und ich zertrete deinen Pappkarton
+EGJ Labelboss, das ist Gangster Rap
+Fresse, ich bin King und nimm dir deine Rente weg
+Keiner wird hier auf der Street akzeptiert
+Auf der Street hast du dich mit Keep it Real krass blamiert
+Wir verstehen deine Sprache nicht, du bist leider du
+Leider Schwul, leider quatscht du mich mit jeder Scheiße zu
+Kannst du sehn, ja, die Wolken reißen auf
+Ja, ich such ein schlechtes Vorbild und folter' einen Clown
+Ich bin zurück, jetzt wird die Szene aufgemischt
+Und für mich gehört in Sachen Rapper jeder ausgeknipst
+Immer noch ich, das ist Album Nummer 7
+Und sie wollen mir hier echt den Mund verbieten, dann fickt euch
+Ab sofort hab ich offiziell mit jedem Streit
+Und ich ficke deine Schwester, meine Tracks sind themenreich
+Ich mach vor keinem Halt, Jungs von den Straßen sind so
+Ihr Zecken, das war grade mal das Intro</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -461,9 +496,87 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Part 1]Ich war nicht verschwunden, JungeIch war nur hinter dem HorizontDu findest Bushido, wenn Geräusche von Patronen komm'nIch bin wieder back, ich hab mir das Ziel gesetztMich stark zu machen für den ganzen primitiven DreckWir bleiben böse Jungs, ohne Bildung, ohne nichtsOhne Perspektive und jetzt Auftrittstverbot für michSelbst Politiker, sie möchten es verschlimmernDenn ich bringe Terror in die Köpfe ihrer KinderIch spreche nur das aus, was sich keiner trautIch seh' Jugendliche, die am dealen sind und schreib es aufIhr seht Jugendliche dealen, doch ihr scheißt daraufIhr bringt lieber Studien, dass heute jeder Zweite klautArmes Deutschland, wenn das die Presse siehtDass ihr eure scheiß Probleme jetzt schon auf 'nen Rapper schiebtIch sag euch eine Sache: Ihr werdet mich nicht los bekomm'Dieser Mann war hinter dem Horizont[Hook]Ihr dachtet wirklich alle dieser Mann ist fortSorry, doch ich musste nochmal wiederkomm'nIch sag euch eine Sache: Ich war niemals wegDenn ich war nur hinter dem HorizontIch scheiß drauf, dass sie mich jetzt verbieten woll'nUnd meine Leiter brechen, dass ich nicht nach oben komm'Ich sag euch eine Sache: Ihr bekommt mich niemals wegDieser Junge war hinter dem Horizont
-[Part 2]Hinter dem Horizont, das hier ist nicht Carlo CokxxxAlbum Nummer Sieben und ich bringe den Sopranos-FlowSieben krasse Alben, sieben mal zufriedenerSieben, um das Gold zu bekommen für den 7erIhr seid im Bushido Fieber, jeder möchte ein Bushido-FeatureHalt die Fresse, kauf dir ein Bushido-T-ShirtHab ich schon erwähnt, dass ich Platin bin?200.000 CDs, das ist MarketingDeutschraps Next Level, ersguterjungeDu willst Praktikant sein? Knie vor meinem ChefsesselScheiß drauf wieviel Geld ich noch verdien'Selbst im Bravo-Interview red' ich von edlem KokainIch bin immer noch ich, siehst du, nichts hat sich verändertEchte Gangster hassen immer noch dichUnd ich brauche kein' PersonenschutzEs ist Schicksal wenn Personen komm'nIhr findet mich hinter dem Horizont[Hook]Ihr dachtet wirklich alle dieser Mann ist fortSorry, doch ich musste nochmal wiederkomm'nIch sag euch eine Sache: Ich war niemals wegDenn ich war nur hinter dem HorizontIch scheiß drauf, dass sie mich jetzt verbieten woll'nUnd meine Leiter brechen, dass ich nicht nach oben komm'Ich sag euch eine Sache: Ihr bekommt mich niemals wegDieser Junge war hinter dem Horizont
-[Part 3]Hinter dem Horizont, die Wolken werden schwarzIch verklage Rapper jetzt schon internationalGeschäft bleibt Geschäft, MannJunge, das hier bleibt die StraßeUnd Gesetz bleibt Gesetz, MannSie mein', dass Kriminelle mich im Knast hör'nIch sag mit Stolz, dass die Brüder mich im Knast hör'nIch schreib das Album für die Jungs hier auf den StraßenDer Smog ist wieder da, ihr dürft alle wieder atmenDas hier bleibt die Ansage, Mann, auf der AnklagebankSchreib ich dir 'ne Autogrammkarte, dannBist du Witzfigur glücklichIch krieg die Stelle schon im VorausDu schwule Missgeburt, fick dichIch geh nicht weg von hier, ich bin mir treu gebliebenHab mich nicht verändert und deswegen gibt es heute siebenGott sei Dank ist es so gekomm'nIch dreh mich um und warte hinter dem Horizont[Hook]Ihr dachtet wirklich alle dieser Mann ist fortSorry, doch ich musste nochmal wiederkomm'nIch sag euch eine Sache: Ich war niemals wegDenn ich war nur hinter dem HorizontIch scheiß drauf, dass sie mich jetzt verbieten woll'nUnd meine Leiter brechen, dass ich nicht nach oben komm'Ich sag euch eine Sache: Ihr bekommt mich niemals wegDieser Junge war hinter dem Horizont</t>
+          <t>[Part 1]
+Ich war nicht verschwunden, Junge
+Ich war nur hinter dem Horizont
+Du findest Bushido, wenn Geräusche von Patronen komm'n
+Ich bin wieder back, ich hab mir das Ziel gesetzt
+Mich stark zu machen für den ganzen primitiven Dreck
+Wir bleiben böse Jungs, ohne Bildung, ohne nichts
+Ohne Perspektive und jetzt Auftrittstverbot für mich
+Selbst Politiker, sie möchten es verschlimmern
+Denn ich bringe Terror in die Köpfe ihrer Kinder
+Ich spreche nur das aus, was sich keiner traut
+Ich seh' Jugendliche, die am dealen sind und schreib es auf
+Ihr seht Jugendliche dealen, doch ihr scheißt darauf
+Ihr bringt lieber Studien, dass heute jeder Zweite klaut
+Armes Deutschland, wenn das die Presse sieht
+Dass ihr eure scheiß Probleme jetzt schon auf 'nen Rapper schiebt
+Ich sag euch eine Sache: Ihr werdet mich nicht los bekomm'
+Dieser Mann war hinter dem Horizont
+[Hook]
+Ihr dachtet wirklich alle dieser Mann ist fort
+Sorry, doch ich musste nochmal wiederkomm'n
+Ich sag euch eine Sache: Ich war niemals weg
+Denn ich war nur hinter dem Horizont
+Ich scheiß drauf, dass sie mich jetzt verbieten woll'n
+Und meine Leiter brechen, dass ich nicht nach oben komm'
+Ich sag euch eine Sache: Ihr bekommt mich niemals weg
+Dieser Junge war hinter dem Horizont
+[Part 2]
+Hinter dem Horizont,das hier ist nicht Carlo Cokxxx
+Album Nummer Sieben und ich bringe den Sopranos-Flow
+Sieben krasse Alben, sieben mal zufriedener
+Sieben, um das Gold zu bekommen für den 7er
+Ihr seid im Bushido Fieber, jeder möchte ein Bushido-Feature
+Halt die Fresse, kauf dir ein Bushido-T-Shirt
+Hab ich schon erwähnt, dass ich Platin bin?200.000 CDs, das ist Marketing
+Deutschraps Next Level,ersguterjunge
+Du willst Praktikant sein? Knie vor meinem Chefsessel
+Scheiß drauf wieviel Geld ich noch verdien'
+Selbst im Bravo-Interview red' ich von edlem Kokain
+Ich bin immer noch ich, siehst du, nichts hat sich verändert
+Echte Gangster hassen immer noch dich
+Und ich brauche kein' Personenschutz
+Es ist Schicksal wenn Personen komm'n
+Ihr findet mich hinter dem Horizont
+[Hook]
+Ihr dachtet wirklich alle dieser Mann ist fort
+Sorry, doch ich musste nochmal wiederkomm'n
+Ich sag euch eine Sache: Ich war niemals weg
+Denn ich war nur hinter dem Horizont
+Ich scheiß drauf, dass sie mich jetzt verbieten woll'n
+Und meine Leiter brechen, dass ich nicht nach oben komm'
+Ich sag euch eine Sache: Ihr bekommt mich niemals weg
+Dieser Junge war hinter dem Horizont
+[Part 3]
+Hinter dem Horizont, die Wolken werden schwarz
+Ich verklage Rapper jetzt schon international
+Geschäft bleibt Geschäft, Mann
+Junge, das hier bleibt die Straße
+Und Gesetz bleibt Gesetz, Mann
+Sie mein', dass Kriminelle mich im Knast hör'n
+Ich sag mit Stolz, dass die Brüder mich im Knast hör'n
+Ich schreib das Album für die Jungs hier auf den Straßen
+Der Smog ist wieder da, ihr dürft alle wieder atmen
+Das hier bleibt die Ansage, Mann, auf der Anklagebank
+Schreib ich dir 'ne Autogrammkarte, dann
+Bist du Witzfigur glücklich
+Ich krieg die Stelle schon im Voraus
+Du schwule Missgeburt, fick dich
+Ich geh nicht weg von hier, ich bin mir treu geblieben
+Hab mich nicht verändert und deswegen gibt es heute sieben
+Gott sei Dank ist es so gekomm'n
+Ich dreh mich um und warte hinter dem Horizont
+[Hook]
+Ihr dachtet wirklich alle dieser Mann ist fort
+Sorry, doch ich musste nochmal wiederkomm'n
+Ich sag euch eine Sache: Ich war niemals weg
+Denn ich war nur hinter dem Horizont
+Ich scheiß drauf, dass sie mich jetzt verbieten woll'n
+Und meine Leiter brechen, dass ich nicht nach oben komm'
+Ich sag euch eine Sache: Ihr bekommt mich niemals weg
+Dieser Junge war hinter dem Horizont</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -517,8 +630,81 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Part I:]Ihr wollt die Songs verbietenGuck ich sende live von dem PiratensenderIch mach ein Blutbad und glaubt mirHier baden GangsterMein Lebensstil ist wie ein Ticket in den KnastSchenk mir zum Geburtstag eine Kiste voller Schnaps yeahDenkst du wirklich noch ich halte mich zurück du KekZurück du Kek ich unterhalte mich hier nicht mit DreckWas willst du AffenhureDeutscher Rap ist MassenmordDie Amis lassen mich nicht rein ich hab den Pass verlorenDu bist wie Elton JohnDu bist als Schwuler auf die Welt gekommenMänner sind in deinen Arsch für Geld gekommenIch bin umstritten und das ganze Land hat AngstDeine Freundin heiratet am Standesamt den Schwanz yeahIch mach dich fertig JungeDu rauchst ne FriedenspfeifeDann zieh noch mal bevor ich dich auf die Vitrine schmeißeGeh mir aus den AugenIch mein das nur im GutenUnd du kannst weiter meine Skrupel suchen[Hook]Kannst du die Sonne sehnIch beschreib euch Nutten wie die Sonne gerade hinter meinen Blöcken hier verblasstWir klettern wiedermal aufs DachDieser Blick geht auf die Stadt und ich sag nur lieber Gott es werde NachtKannst du die Streife sehnSag mir kannst du sehn wie sie um die Blöcke fahrn und sie denken wir sind blindWir klettern wiedermal vom DachUnd auf uns wartet der KnastUnd ich sag nur lieber Gott es kann beginnen
-[Part II:]Die Sonne geht und meine ganze Stadt wird anthrazitUnd jeder weiß Bescheid dein Nebenjob ist TransvestitDas ist wie SpeedDer Espresso hält mich fitDein Verhalten bricht dir hier im Ghetto das Genick yeahWer hohlt die Base rausSag mir wer ist MannsgenugIch soll mich kurz beschreibenGhetto,arrogant und klugAußerdem bin ich der Inbegriff von sturCLAMG das ist Gangsterrap ihr Huren yeahIch lach dich ausDu Gangster auf ner HantelbankIch komm zu dir und zünde deinen schwulen Ledermantel anHier gibt es nichts zu diskutiern weil ich das Thema binWas ist das Abitur ich ficke deine LehrerinKomm in den Fightclub komm wir erwarten dichFür deinen Vater gibt es so wie jeden Abend FischWeil eure scheiß Familie stinkt du hast ne heiden AngstDu bist diesen Beef mit mir eingegangen[Hook][Part III:]Es kann beginnen also geh mit deinem Schwulen grillenDu Straßenpenner sammelst Kohle um den Hut zu füllenIch fick dein Ego-TrippGeh mit deinen Zecken losDeine Freunde gehn zur Uni meine strecken KoksDu bist cridible besorg mir was zu ziehnDu wolltest davon rappen jetzt besorg das KokainIch beförder dich ins KrankenhausJa und ich äußer mich jetzt öffentlich bei KernerDass ich ab und zu paar Schlampen hauGangsterrap höchstes LevelDas ist der Rhythym für die StreetLad das MagazinBizzy mach den Beat yeahMan wir sind aufgewachsen zwischen diesem BlaulichtDu willst mich ficken willst mir drohen ja dann trau dichIch komm zu dir,komm zu ihr und ich regel dasIch scheiß auf alle und ich scheiß auf euer SägeblattWer kann mir das Wasser reichenIch fick dein ganzen MissgeburtenclubScheiß egal wie ihr Missgeburten guckt</t>
+          <t>[Part I:]
+Ihr wollt die Songs verbieten
+Guck ich sende live von dem Piratensender
+Ich mach ein Blutbad und glaubt mir
+Hier baden Gangster
+Mein Lebensstil ist wie ein Ticket in den Knast
+Schenk mir zum Geburtstag eine Kiste voller Schnaps yeah
+Denkst du wirklich noch ich halte mich zurück du Kek
+Zurück du Kek ich unterhalte mich hier nicht mit Dreck
+Was willst du Affenhure
+Deutscher Rap ist Massenmord
+Die Amis lassen mich nicht rein ich hab den Pass verloren
+Du bist wie Elton JohnDu bist als Schwuler auf die Welt gekommenMänner sind in deinen Arsch für Geld gekommen
+Ich bin umstritten und das ganze Land hat Angst
+Deine Freundin heiratet am Standesamt den Schwanz yeah
+Ich mach dich fertig Junge
+Du rauchst ne Friedenspfeife
+Dann zieh noch mal bevor ich dich auf die Vitrine schmeiße
+Geh mir aus den Augen
+Ich mein das nur im Guten
+Und du kannst weiter meine Skrupel suchen
+[Hook]
+Kannst du die Sonne sehn
+Ich beschreib euch Nutten wie die Sonne gerade hinter meinen Blöcken hier verblasst
+Wir klettern wiedermal aufs Dach
+Dieser Blick geht auf die Stadt und ich sag nur lieber Gott es werde Nacht
+Kannst du die Streife sehn
+Sag mir kannst du sehn wie sie um die Blöcke fahrn und sie denken wir sind blind
+Wir klettern wiedermal vom Dach
+Und auf uns wartet der Knast
+Und ich sag nur lieber Gott es kann beginnen
+[Part II:]
+Die Sonne geht und meine ganze Stadt wird anthrazit
+Und jeder weiß Bescheid dein Nebenjob ist Transvestit
+Das ist wie Speed
+Der Espresso hält mich fit
+Dein Verhalten bricht dir hier im Ghetto das Genick yeah
+Wer hohlt die Base raus
+Sag mir wer ist Mannsgenug
+Ich soll mich kurz beschreiben
+Ghetto,arrogant und klug
+Außerdem bin ich der Inbegriff von stur
+CLAMG das ist Gangsterrap ihr Huren yeah
+Ich lach dich aus
+Du Gangster auf ner Hantelbank
+Ich komm zu dir und zünde deinen schwulen Ledermantel an
+Hier gibt es nichts zu diskutiern weil ich das Thema bin
+Was ist das Abitur ich ficke deine Lehrerin
+Komm in den Fightclub komm wir erwarten dich
+Für deinen Vater gibt es so wie jeden Abend Fisch
+Weil eure scheiß Familie stinkt du hast ne heiden Angst
+Du bist diesen Beef mit mir eingegangen
+[Hook]
+[Part III:]
+Es kann beginnen also geh mit deinem Schwulen grillen
+Du Straßenpenner sammelst Kohle um den Hut zu füllen
+Ich fick dein Ego-Tripp
+Geh mit deinen Zecken los
+Deine Freunde gehn zur Uni meine strecken Koks
+Du bist cridible besorg mir was zu ziehn
+Du wolltest davon rappen jetzt besorg das Kokain
+Ich beförder dich ins Krankenhaus
+Ja und ich äußer mich jetzt öffentlich bei Kerner
+Dass ich ab und zu paar Schlampen hau
+Gangsterrap höchstes Level
+Das ist der Rhythym für die Street
+Lad das Magazin
+Bizzy mach den Beat yeah
+Man wir sind aufgewachsen zwischen diesem Blaulicht
+Du willst mich ficken willst mir drohen ja dann trau dich
+Ich komm zu dir,komm zu ihr und ich regel das
+Ich scheiß auf alle und ich scheiß auf euer Sägeblatt
+Wer kann mir das Wasser reichen
+Ich fick dein ganzen Missgeburtenclub
+Scheiß egal wie ihr Missgeburten guckt</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -572,10 +758,112 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[Songtext zu „So sein wie sie“][Part 1: Bushido]1978, er kam ohne Schatten auf die WeltSeine Mutter musste putzen denn sie hatten noch kein GeldAndere sorgen als manche Leute die mit Geld gesegnet sindEine starke Frau die in Problemen schwimmtTränen sindAuf ihren Wangen zu erkennen wenn sie schlafen willSie wollte nicht viel nur seinen Magen füllenEr hat sie im stich gelassenSie konnt es nich verkraftenEs is leicht, ein Kind zu machenDoch bring mal ein Kind zum lachenAuf sich allein gestellt hat sie ihn dann großgezogenSie war für ihn da, sie hat auf ihren Tod geschworenDoch was dem Jungen einfach fehlte war ne harte HandNe Mutter kann Sachen nich rüberbringen so wies ein Vater kannEr hat gemacht worauf er bock hatteWas er grad im Kopf hatteWenn er diesen Umgang mit Gesocks hatteDann brachten Bullen ihn zum ersten Mal nach HausMit 13 bewaffnet das erste Mal geklaut[Hook: Bushido]Eines Morgens bin ich aufgewachtIch wusste schon sehr früh ich bin ein Teil von ihnenIch wollte sein wie sieKein Therapeuth, Pädagoge konnte mich damals im Heim erziehnIch wollte sein wie sieIch hatte Koks, hatte Gras, hatte TripsEs war mein GebietIch wollte sein wie sieMama es tut mir leid du weinstUnd ich weiss du verziehst mir nieDoch ich wollte sein wie sieSo sein wie sie
-[Part 2: Bushido]2 Jahre Später15, Vorbestraft Streit mit dem LehrerMit 16 wurd er rausgeschmissenEr fing an zu den falschen Leuten aufzublickenEr war jung drauf geschissenWer entscheidet schon was falsch oder richtig istWichtig war ihm Geld und er vertickte TripsLangsam kamen die Großen auf ihn zuEr wurde ihr KurierAlso fick auf jeden Wichser der StudiertDas Motto auf die schnelle was verdienenKriminelle EnergienHat er guten Stoff bestelle ich bei ihmEr sah die ganzen Älteren die alle schon ein Namen hattenGangster die sich Namen machtenUnd über die Strafe lachtenDas hier ist BerlinEr hatte keinen Vater mehrIm Bezug auf seinen kleinen Bruder fühlt er sich als ob er Vater wärRäumte jeden Laden leerEr wollte wie die großen sein doch wie soll man so was diesem Staat erklärn[Hook: Bushido]Eines Morgens bin ich aufgewachtIch wusste schon sehr früh ich bin ein Teil von ihnenIch wollte sein wie sieKein Therapeuth, Pädagoge konnte mich damals im Heim erziehnIch wollte sein wie sieIch hatte Koks, hatte Gras, hatte TripsEs war mein GebietIch wollte sein wie sieMama es tut mir leid du weinstUnd ich weiss du verziehst mir nieDoch ich wollte sein wie sie
-[Part 3: Bushido]So sein wie sie; und die Jahre vergingenEr bereut es heute, keine seine Taten als KindEr geht auf die ende 20 zuEr sucht den inneren FriedenDoch guck er kann nich ruhenWeil ihn das verlangen ruftEs wurd ihm beigebrachtDas ganze Leben ist vergleichbar mit ner EinzelhaftDreh nich durch beweis dir wasEs ist ein GeistesblitzEr sieht die Älteren von damalsAber heute sitzen beide hier an einem TischUnd trotzdem spürt er dieses böse BlutSag was du in der Höhle eines Löwen suchstWenn der Instinkt zum töten ruftTöten um zu überlebenWenn du vermögen hast nich drüber redenEs gibt falsche Freunde die bei Brüdern stehlenUnd deswegen bin ich nur noch im CaféUnd deswegen werd ich nur noch hier gesehnDas ist Al-BustanGuck was im Ghetto so passiertDu kannst mich aus dem Ghetto holenDoch das Ghetto nicht aus mir
-[Hook: Bushido]Eines Morgens bin ich aufgewachtIch wusste schon sehr früh ich bin ein Teil von ihnenIch wollte sein wie sieKein Therapeuth, Pädagoge konnte mich damals im Heim erziehnIch wollte sein wie sieIch hatte Koks, hatte Gras, hatte TripsEs war mein GebietIch wollte sein wie sieMama es tut mir leid du weinstUnd ich weiss du verziehst mir nieDoch ich wollte sein wie sie</t>
+          <t>[Songtext zu „So sein wie sie“]
+[Part 1: Bushido]
+1978, er kam ohne Schatten auf die Welt
+Seine Mutter musste putzen denn sie hatten noch kein Geld
+Andere sorgen als manche Leute die mit Geld gesegnet sind
+Eine starke Frau die in Problemen schwimmt
+Tränen sind
+Auf ihren Wangen zu erkennen wenn sie schlafen will
+Sie wollte nicht viel nur seinen Magen füllen
+Er hat sie im stich gelassen
+Sie konnt es nich verkraften
+Es is leicht, ein Kind zu machen
+Doch bring mal ein Kind zum lachen
+Auf sich allein gestellt hat sie ihn dann großgezogen
+Sie war für ihn da, sie hat auf ihren Tod geschworen
+Doch was dem Jungen einfach fehlte war ne harte Hand
+Ne Mutter kann Sachen nich rüberbringen so wies ein Vater kann
+Er hat gemacht worauf er bock hatte
+Was er grad im Kopf hatte
+Wenn er diesen Umgang mit Gesocks hatte
+Dann brachten Bullen ihn zum ersten Mal nach Haus
+Mit 13 bewaffnet das erste Mal geklaut
+[Hook: Bushido]
+Eines Morgens bin ich aufgewacht
+Ich wusste schon sehr früh ich bin ein Teil von ihnen
+Ich wollte sein wie sie
+Kein Therapeuth, Pädagoge konnte mich damals im Heim erziehn
+Ich wollte sein wie sie
+Ich hatte Koks, hatte Gras, hatte Trips
+Es war mein Gebiet
+Ich wollte sein wie sie
+Mama es tut mir leid du weinst
+Und ich weiss du verziehst mir nie
+Doch ich wollte sein wie sie
+So sein wie sie
+[Part 2: Bushido]
+2 Jahre Später
+15, Vorbestraft Streit mit dem Lehrer
+Mit 16 wurd er rausgeschmissen
+Er fing an zu den falschen Leuten aufzublicken
+Er war jung drauf geschissen
+Wer entscheidet schon was falsch oder richtig ist
+Wichtig war ihm Geld und er vertickte Trips
+Langsam kamen die Großen auf ihn zu
+Er wurde ihr Kurier
+Also fick auf jeden Wichser der Studiert
+Das Motto auf die schnelle was verdienen
+Kriminelle Energien
+Hat er guten Stoff bestelle ich bei ihm
+Er sah die ganzen Älteren die alle schon ein Namen hatten
+Gangster die sich Namen machten
+Und über die Strafe lachten
+Das hier ist Berlin
+Er hatte keinen Vater mehr
+Im Bezug auf seinen kleinen Bruder fühlt er sich als ob er Vater wär
+Räumte jeden Laden leer
+Er wollte wie die großen sein doch wie soll man so was diesem Staat erklärn
+[Hook: Bushido]
+Eines Morgens bin ich aufgewacht
+Ich wusste schon sehr früh ich bin ein Teil von ihnen
+Ich wollte sein wie sie
+Kein Therapeuth, Pädagoge konnte mich damals im Heim erziehn
+Ich wollte sein wie sie
+Ich hatte Koks, hatte Gras, hatte Trips
+Es war mein Gebiet
+Ich wollte sein wie sie
+Mama es tut mir leid du weinst
+Und ich weiss du verziehst mir nie
+Doch ich wollte sein wie sie
+[Part 3: Bushido]
+So sein wie sie; und die Jahre vergingen
+Er bereut es heute, keine seine Taten als Kind
+Er geht auf die ende 20 zu
+Er sucht den inneren Frieden
+Doch guck er kann nich ruhen
+Weil ihn das verlangen ruft
+Es wurd ihm beigebracht
+Das ganze Leben ist vergleichbar mit ner Einzelhaft
+Dreh nich durch beweis dir was
+Es ist ein Geistesblitz
+Er sieht die Älteren von damals
+Aber heute sitzen beide hier an einem Tisch
+Und trotzdem spürt er dieses böse Blut
+Sag was du in der Höhle eines Löwen suchst
+Wenn der Instinkt zum töten ruft
+Töten um zu überleben
+Wenn du vermögen hast nich drüber reden
+Es gibt falsche Freunde die bei Brüdern stehlen
+Und deswegen bin ich nur noch im Café
+Und deswegen werd ich nur noch hier gesehn
+Das ist Al-Bustan
+Guck was im Ghetto so passiert
+Du kannst mich aus dem Ghetto holen
+Doch das Ghetto nicht aus mir
+[Hook: Bushido]
+Eines Morgens bin ich aufgewacht
+Ich wusste schon sehr früh ich bin ein Teil von ihnen
+Ich wollte sein wie sie
+Kein Therapeuth, Pädagoge konnte mich damals im Heim erziehn
+Ich wollte sein wie sie
+Ich hatte Koks, hatte Gras, hatte Trips
+Es war mein Gebiet
+Ich wollte sein wie sie
+Mama es tut mir leid du weinst
+Und ich weiss du verziehst mir nie
+Doch ich wollte sein wie sie</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -629,9 +917,99 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[Hook: Bushido und (Chakuza)]:Du lebst in deiner kleinen Welt, es tut uns leid, du bist leider Du(Doch leider kannst du nix erzählen, Mann, von Schweiß und Blut)Wir sind verschieden, Junge, merk dir eins, wir teilen nicht(Du lebst in deiner heilen Welt und ja, ich scheiß auf dich )Ich scheiß auf deine heile Welt, Mann, du bist leider Du(Verschließ' die Tür, denn du kriegst heute von uns zweien Besuch)Wir sind verschieden und wir teilen niemals deine Sicht(Du siehst, wie deine heile Welt in 1000 Teile bricht)[Strophe I: Chakuza]:Hier bist du weg und keiner sieht`s, wenn es passiertUnd wirst du frechKannst du statt Geld nur eine Kiezschelle kassierenEs hat sich viel verändert hierEs wirkt so endlos jeden TagDenn statt zu betteln um was BaresSagt man: Hände hoch, du Arsch!Es ist alles Frust und niemals Schluss mit diesem DreckNur ein Schuss und du bist wegJunge, Russisches RouletteUnd statt lustig ist es hässlich und grauUnd zum Schluss kriegst du statt Essen nur ein Messer in den BauchHört die Sachen und verbietet es!Ich bin froh, ich brauche Kraft, denn diese Strasse war noch nie gerechtIdiot, was für ein Absturz, Junge, siehst du es?Du hast erst FriedenWenn dich irgend so ein Bastard mal kurz abmurkst und dann liegen lässtDu kannst hart sein oder armEin Soldat, bist du da, bist du am ArschScheiß egal, was einmal warJeder Schlag trifft dich hartSo schwer am Kopf, wie ein BoxerHier ist nur Scarface ein Star und Harry Potter ein Opfer
-[Hook][Strophe II: Bushido]:Die Welt ist grau und du siehst jeden Tag den gleichen MüllWeil sich kein Kühlschrank an diesem Ort alleine fülltHier platzen deine SeifenblasenHier macht keiner GeldUnd leider hat auch keiner Lust, Kanaken einzustellenHier stirbt die Hoffnung und zwar jeden TagDeine Welt ist kunterbuntDoch in dieser Welt ist die Tapete schwarzDu kannst mir glaubenHier schreibt man die Probleme groß, was für Skrupel?Unsere Jugend geht auf Lehrer losWo siehst du Kinder spielen?Ich seh nur Kinder dealenUnd wenn schon Kinder dealenIst das echt ein KinderspielIn dieser Welt siehst du jeden Tag den gleichen DreckMenschen verlieren wirklich alles und verzweifeln echtWo dein arbeitsloser Vater ohne Kohle istUnd deine Mutter auch im Supermarkt den Boden wischtUnd mir ist wirklich so egalOb dir der Scheiß gefälltLeb dein Leben jetzt in deiner heilen Welt
-[Hook][Strophe III: Chakuza]Es ist traurigEs ist wolkigEs ist grauAuch das BlaulichtHält den Horizont nicht ausSo sieht's ausSo sieht's ausJeder ClownWird im Vollkontakt verhauenWährend die Vollspasten da draußenEinen Wolkenkratzer bauenUnd das Volk kommt hier nicht rausEs bleibt daScheiße bleibt ScheißeEs bleibt einfach alles daScheiße bleibt ScheißeUnd kommt einfach aus dem ArschUnd dieses Jahr kommt für die KleinenAuch der Weihnachtsmann in schwarz[Strophe IV: Bushido]:Du kannst das alles ignorierenWenn du die Augen schließtDoch hier trägt jeder eine WaffeUnd zwar aus PrinzipDu hörst richtigSie sprechen hier gebrochen deutschKein Aspirin dein Schädel wird mit Smog betäubtDu meinst ich übertreibSchön für dich ich untertreibDu spürst das warme BlutVom Messerstich im UnterleibScheiß auf deine heile WeltHerzlich willkommen hier in meiner WeltIch begrüße deine Jungs mit dreizehn Schellen
+          <t>[Hook: Bushido und (Chakuza)]:
+Du lebst in deiner kleinen Welt, es tut uns leid, du bist leider Du
+(Doch leider kannst du nix erzählen, Mann, von Schweiß und Blut)
+Wir sind verschieden, Junge, merk dir eins, wir teilen nicht
+(Du lebst in deiner heilen Welt und ja, ich scheiß auf dich )
+Ich scheiß auf deine heile Welt, Mann, du bist leider Du
+(Verschließ' die Tür, denn du kriegst heute von uns zweien Besuch)
+Wir sind verschieden und wir teilen niemals deine Sicht
+(Du siehst, wie deine heile Welt in 1000 Teile bricht)
+[Strophe I: Chakuza]:
+Hier bist du weg und keiner sieht`s, wenn es passiert
+Und wirst du frech
+Kannst du statt Geld nur eine Kiezschelle kassieren
+Es hat sich viel verändert hier
+Es wirkt so endlos jeden Tag
+Denn statt zu betteln um was Bares
+Sagt man: Hände hoch, du Arsch!
+Es ist alles Frust und niemals Schluss mit diesem Dreck
+Nur ein Schuss und du bist weg
+Junge, Russisches Roulette
+Und statt lustig ist es hässlich und grau
+Und zum Schluss kriegst du statt Essen nur ein Messer in den Bauch
+Hört die Sachen und verbietet es!
+Ich bin froh, ich brauche Kraft, denn diese Strasse war noch nie gerecht
+Idiot, was für ein Absturz, Junge, siehst du es?
+Du hast erst Frieden
+Wenn dich irgend so ein Bastard mal kurz abmurkst und dann liegen lässt
+Du kannst hart sein oder arm
+Ein Soldat, bist du da, bist du am Arsch
+Scheiß egal, was einmal war
+Jeder Schlag trifft dich hart
+So schwer am Kopf, wie ein Boxer
+Hier ist nur Scarface ein Star und Harry Potter ein Opfer
+[Hook]
+[Strophe II: Bushido]:
+Die Welt ist grau und du siehst jeden Tag den gleichen Müll
+Weil sich kein Kühlschrank an diesem Ort alleine füllt
+Hier platzen deine Seifenblasen
+Hier macht keiner Geld
+Und leider hat auch keiner Lust, Kanaken einzustellen
+Hier stirbt die Hoffnung und zwar jeden Tag
+Deine Welt ist kunterbunt
+Doch in dieser Welt ist die Tapete schwarz
+Du kannst mir glauben
+Hier schreibt man die Probleme groß, was für Skrupel?
+Unsere Jugend geht auf Lehrer los
+Wo siehst du Kinder spielen?
+Ich seh nur Kinder dealen
+Und wenn schon Kinder dealen
+Ist das echt ein Kinderspiel
+In dieser Welt siehst du jeden Tag den gleichen Dreck
+Menschen verlieren wirklich alles und verzweifeln echt
+Wo dein arbeitsloser Vater ohne Kohle ist
+Und deine Mutter auch im Supermarkt den Boden wischt
+Und mir ist wirklich so egal
+Ob dir der Scheiß gefällt
+Leb dein Leben jetzt in deiner heilen Welt
+[Hook]
+[Strophe III: Chakuza]
+Es ist traurig
+Es ist wolkig
+Es ist grau
+Auch das Blaulicht
+Hält den Horizont nicht aus
+So sieht's aus
+So sieht's aus
+Jeder Clown
+Wird im Vollkontakt verhauen
+Während die Vollspasten da draußen
+Einen Wolkenkratzer bauen
+Und das Volk kommt hier nicht raus
+Es bleibt da
+Scheiße bleibt Scheiße
+Es bleibt einfach alles da
+Scheiße bleibt Scheiße
+Und kommt einfach aus dem Arsch
+Und dieses Jahr kommt für die Kleinen
+Auch der Weihnachtsmann in schwarz
+[Strophe IV: Bushido]:
+Du kannst das alles ignorieren
+Wenn du die Augen schließt
+Doch hier trägt jeder eine Waffe
+Und zwar aus Prinzip
+Du hörst richtig
+Sie sprechen hier gebrochen deutsch
+Kein Aspirin dein Schädel wird mit Smog betäubt
+Du meinst ich übertreib
+Schön für dich ich untertreib
+Du spürst das warme Blut
+Vom Messerstich im Unterleib
+Scheiß auf deine heile Welt
+Herzlich willkommen hier in meiner Welt
+Ich begrüße deine Jungs mit dreizehn Schellen
 [Hook]</t>
         </is>
       </c>
@@ -686,10 +1064,119 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Strophe I]Bruder das hier wird mein letzter BriefDu weißt ich schreib ihn nur für dichUnd du liest in jeder Zeile wies mich trifftNichts ist für die EwigkeitUnd trotzdem bin ich mich am fragenWarum Gott dich schon so früh aus meinem Leben reißt1000 Fragen die mich wirklich jeden Tag quälenVorwürfe die mir jede nacht den Schlaf nehmenIch schwör ich kann nich mehrMann und ich hoff du verstehst was ich fühlBitte trockne meine TränenIch schreib von Herzen mannUnd dein Foto steht direkt neben dem BettIch zünd jede nacht ne Kerze anIch war nie der typ der jeden Tag Gebete sprichtDoch das ändert sich wenn du merkst wie kurz das Leben istIch schwör dir ich kann immer noch dein Lachen hörnDamals hab ich oft gesagt das mich deine Grimassen störnIch bin so gefickt verdammtIch vermiss dich mannStreif bei deinem Foto am Gesicht entlang[Hook]Wenn Gott mir doch nur diesen Wunsch erfüllen könnteDich noch einmal zu sehenKannst du meine Tränen sehenMann wir sind am EndeWie gern würd ich dich noch mal in den Arm nehmenIch schaff es nich wie soll ich vor dem Grab stehenWenn Gott mir diesen Wunsch erfüllen könnteDich nur noch einmal zu sehenKannst du meine Tränen sehenWie ich gerade kämpfeWie gern würd ich dich noch mal in den arm nehmenIch schaff es nich ich will dich nicht im Sarg sehen
-[Strophe II]Deine BeerdigungDer schlimmste Tag in meinem ganzen LebenÜberall standen die Kerzen rumUnd deine MutterSie hat mir so leid getanSie hat so sehr geweintDein Vater nahm sie in den ArmUnd deine kleine SchwesterSie hats noch nich gerafftDoch dafür dein großer BruderSein Gesicht war blassDa waren so viele LeuteDie ich noch nich kannte mannIch meine deine Tanten VerwandtenDeine Bekannten kamenMerkst du wie du uns fehlstSag mal spürst du diese TrauerKannst du sehn wie sich unsre jungs quälenUnd glaub mir wir sind gar nich mehr so unterwegsUns ist so die lust vergangen abends rumzustehnKein Tag vergeht an dem wir nicht an dich denkenIch hab meinen Freund verlorenUnd keinen MitmenschenIch bin so gefickt verdammtIch vermiss dich mannIch hoff nur das du uns von oben sehn kannst
-[Hook]Wenn Gott mir doch nur diesen Wunsch erfüllen könnteDich noch einmal zu sehenKannst du meine Tränen sehenMann wir sind am EndeWie gern würd ich dich noch mal in den Arm nehmenIch schaff es nich wie soll ich vor dem Grab stehenWenn Gott mir diesen Wunsch erfüllen könnteDich nur noch einmal zu sehenKannst du meine Tränen sehenWie ich gerade kämpfeWie gern würd ich dich noch mal in den arm nehmenIch schaff es nich ich will dich nicht im Sarg sehen[Strophe III: Bushido]Ich wache schweißgebadet aufSchweißgebadet ja schon wieder dieser TraumWir sitzen beide auf der CouchDu hast mich zufrieden angeschautDanach liefen wir dann rausSpazieren gehenDoch der ganze Strand war grauDie Sonne konnte mann nich sehnWeil sie zu dunkel warDu hast so oft gefragt stranden unsere Jungs am SargWeiße Blumen und der Himmel war türkis gefärbtVielleicht war ich gar nicht weit vom Paradies entferntIch wollte wirklich so viel sagen doch ich konnt es nichtDeshalb schreib ich diesen einen Song für dichKannst du mich den hörnKonntest du mich hörn als ich am Grab standKonntest du mich hörn durch diese GlaswandIch schwör ich bin von dir nich weggegangenNein du warst nicht alleinDu hast gekuckt wie ein EngelDein Gesicht war freiFrei von SorgenFrei von den SchmerzenWir vermissen dich so sehr es wird zu viel
-[Hook]Wenn Gott mir doch nur diesen Wunsch erfüllen könnteDich noch einmal zu sehenKannst du meine Tränen sehenMann wir sind am EndeWie gern würd ich dich noch mal in den Arm nehmenIch schaff es nich wie soll ich vor dem Grab stehenWenn Gott mir diesen Wunsch erfüllen könnteDich nur noch einmal zu sehenKannst du meine Tränen sehenWie ich gerade kämpfeWie gern würd ich dich noch mal in den arm nehmenIch schaff es nich ich will dich nicht im Sarg sehen</t>
+          <t>[Strophe I]
+Bruder das hier wird mein letzter Brief
+Du weißt ich schreib ihn nur für dich
+Und du liest in jeder Zeile wies mich trifft
+Nichts ist für die Ewigkeit
+Und trotzdem bin ich mich am fragen
+Warum Gott dich schon so früh aus meinem Leben reißt
+1000 Fragen die mich wirklich jeden Tag quälen
+Vorwürfe die mir jede nacht den Schlaf nehmen
+Ich schwör ich kann nich mehr
+Mann und ich hoff du verstehst was ich fühl
+Bitte trockne meine Tränen
+Ich schreib von Herzen mann
+Und dein Foto steht direkt neben dem Bett
+Ich zünd jede nacht ne Kerze an
+Ich war nie der typ der jeden Tag Gebete spricht
+Doch das ändert sich wenn du merkst wie kurz das Leben ist
+Ich schwör dir ich kann immer noch dein Lachen hörn
+Damals hab ich oft gesagt das mich deine Grimassen störn
+Ich bin so gefickt verdammt
+Ich vermiss dich mann
+Streif bei deinem Foto am Gesicht entlang
+[Hook]
+Wenn Gott mir doch nur diesen Wunsch erfüllen könnte
+Dich noch einmal zu sehen
+Kannst du meine Tränen sehen
+Mann wir sind am Ende
+Wie gern würd ich dich noch mal in den Arm nehmen
+Ich schaff es nich wie soll ich vor dem Grab stehen
+Wenn Gott mir diesen Wunsch erfüllen könnte
+Dich nur noch einmal zu sehen
+Kannst du meine Tränen sehen
+Wie ich gerade kämpfe
+Wie gern würd ich dich noch mal in den arm nehmen
+Ich schaff es nich ich will dich nicht im Sarg sehen
+[Strophe II]
+Deine Beerdigung
+Der schlimmste Tag in meinem ganzen Leben
+Überall standen die Kerzen rum
+Und deine Mutter
+Sie hat mir so leid getan
+Sie hat so sehr geweint
+Dein Vater nahm sie in den Arm
+Und deine kleine Schwester
+Sie hats noch nich gerafft
+Doch dafür dein großer Bruder
+Sein Gesicht war blass
+Da waren so viele Leute
+Die ich noch nich kannte mann
+Ich meine deine Tanten Verwandten
+Deine Bekannten kamen
+Merkst du wie du uns fehlst
+Sag mal spürst du diese Trauer
+Kannst du sehn wie sich unsre jungs quälen
+Und glaub mir wir sind gar nich mehr so unterwegs
+Uns ist so die lust vergangen abends rumzustehn
+Kein Tag vergeht an dem wir nicht an dich denken
+Ich hab meinen Freund verloren
+Und keinen Mitmenschen
+Ich bin so gefickt verdammt
+Ich vermiss dich mann
+Ich hoff nur das du uns von oben sehn kannst
+[Hook]
+Wenn Gott mir doch nur diesen Wunsch erfüllen könnte
+Dich noch einmal zu sehen
+Kannst du meine Tränen sehen
+Mann wir sind am Ende
+Wie gern würd ich dich noch mal in den Arm nehmen
+Ich schaff es nich wie soll ich vor dem Grab stehen
+Wenn Gott mir diesen Wunsch erfüllen könnte
+Dich nur noch einmal zu sehen
+Kannst du meine Tränen sehen
+Wie ich gerade kämpfe
+Wie gern würd ich dich noch mal in den arm nehmen
+Ich schaff es nich ich will dich nicht im Sarg sehen
+[Strophe III: Bushido]
+Ich wache schweißgebadet auf
+Schweißgebadet ja schon wieder dieser Traum
+Wir sitzen beide auf der Couch
+Du hast mich zufrieden angeschaut
+Danach liefen wir dann raus
+Spazieren gehen
+Doch der ganze Strand war grau
+Die Sonne konnte mann nich sehn
+Weil sie zu dunkel war
+Du hast so oft gefragt stranden unsere Jungs am Sarg
+Weiße Blumen und der Himmel war türkis gefärbt
+Vielleicht war ich gar nicht weit vom Paradies entfernt
+Ich wollte wirklich so viel sagen doch ich konnt es nicht
+Deshalb schreib ich diesen einen Song für dich
+Kannst du mich den hörn
+Konntest du mich hörn als ich am Grab stand
+Konntest du mich hörn durch diese Glaswand
+Ich schwör ich bin von dir nich weggegangen
+Nein du warst nicht allein
+Du hast gekuckt wie ein Engel
+Dein Gesicht war frei
+Frei von Sorgen
+Frei von den Schmerzen
+Wir vermissen dich so sehr es wird zu viel
+[Hook]
+Wenn Gott mir doch nur diesen Wunsch erfüllen könnte
+Dich noch einmal zu sehen
+Kannst du meine Tränen sehen
+Mann wir sind am Ende
+Wie gern würd ich dich noch mal in den Arm nehmen
+Ich schaff es nich wie soll ich vor dem Grab stehen
+Wenn Gott mir diesen Wunsch erfüllen könnte
+Dich nur noch einmal zu sehen
+Kannst du meine Tränen sehen
+Wie ich gerade kämpfe
+Wie gern würd ich dich noch mal in den arm nehmen
+Ich schaff es nich ich will dich nicht im Sarg sehen</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -743,9 +1230,95 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[Verse 1]Mir fließt das Ghetto durch die Pulsadern – ich gebe dir dafür die Schuld, VaterDass bei uns damals die Bullen da warenSo wie ich ist diese halbe scheiß NationWir sind den heißen Tropfen auf den kalten Steinen gewohntLass doch mal die Lügen seinWir knacken dafür keine Schlösser und das SEK tritt dafür keine Türen einSag mir endlich, wann kommt Ali ausm Knast?Ich hoffe nur, ich geb' dir mit dem Lied ein bisschen KraftIch bin der, der die Regeln brichtUnd du wirst angehalten weil du als Kanacke in 'nem AMG Mercedes sitztDu bist für sie nur wie Dreck und sie schließen dich wegUnd dann wird mir gesagt, ich handle nicht politisch korrektWie gern würden mich die Wichser in die Zelle bringenWeil in meiner Fangemeinde eh nur Kriminelle sindIhr seid nur unzufrieden, deswegen wollt ihr mir den Mund verbietenIch hab' keine Lust meinen Mund zu schließen[Hook]Kannst du das Ghetto sehen, kannst du es sehen?Kannst du im Ghetto sehen, wie alles verkommt?Denn sie hat alles verlorenKannst du die Tränen sehen, kannst du sie sehen?Sie würde nur zu gern dem Alltag entkommenSie wartet auf ihre ChanceKannst du das Ghetto sehen, kannst du es sehen?Kannst du jetzt sehen, wie er den Job jetzt verliert?Denn er hat alles verlorenKannst du das Ghetto sehen, kannst du es sehen?Und jetzt sag mir nochmal, ich schau' nicht nach vornWir haben alles verloren
-[Verse 2]Für deine Eltern jetzt der Albtraum in PersonDas ist Gangster-Rap, denn ich rappe für ein paar Million'nJa, der Kritiker, er spekuliert – und ich geb' ihm jetzt 'ne HilfeIch bin vorbestraft, asozial und tätowiertGut erkannt, hier rappt der Junge über KnastBeim Echo fühlte ich mich wie ein unerwünschter GastFalsches Lachen, denn sie hassen mich, ich spür' den krassen NeidJa, ich bin der Typ, der im Supermarkt den Kassen greiftIhr wollt das echte Leben? Dann lasst mich aussprechenIch kann noch mehr als nur Autotüren aufbrechenKannst du seh'n, wie sich die Wolkendecke völlig schließt?Mein ganzer Lebensstil wird mich noch in die Hölle ziehenIhr könnt mir den Tod wünschenIch möchte einfach in den siebten Himmel, doch ich werd' mich in den siebten Tod sündenDas ist sieben, Junge – das hier ist das siebte AlbumUnd ich bewahre immer noch die Haltung[Hook]Kannst du das Ghetto sehen, kannst du es sehen?Kannst du im Ghetto sehen, wie alles verkommt?Denn sie hat alles verlorenKannst du die Tränen sehen, kannst du sie sehen?Sie würde nur zu gern dem Alltag entkommenSie wartet auf ihre ChanceKannst du das Ghetto sehen, kannst du es sehen?Kannst du jetzt sehen, wie er den Job jetzt verliert?Denn er hat alles verlorenKannst du das Ghetto sehen, kannst du es sehen?Und jetzt sag mir nochmal, ich schau' nicht nach vornWir haben alles verloren
-[Verse 3]Ich hab mir diesen Weg hier ausgesuchtUnd mag der Weg auch wieder steinig werden scheiß drauf ich geh die Strecke auch zu FußWas wollt ihr mir nur erzählenIhr seid ein Haufen OpferEin Haufen Opfer dass man grade frisch ausgekotzt hatScheiß egal wie viel Geld ich schon verdient habIch bleib für immer dieser Junge der gedealt hatIch mach den UnterrichtDen Unterricht für die UnterschichtFresse es gibt keinen der mich unterbrichtSie versuchen mir die Art zu rappen auszuredenMan dabei haben sie uns vor langer Zeit schon aufgegebenIhr könnt mich abführenHundert tausend Kriminelle die mein Album kaufenKönnt ihr diese Macht spürenIhr könnt mich weg sperrenIhr könnt mich observierenDie Langeweile treibt mich dazu euch zu provozierenEs gibt keine KonkurrenzUnd ich ficke eure ArtgenossenIch bin jetzt zurück jetzt wird scharf geschossen[Hook]Kannst du das Ghetto sehen, kannst du es sehen?Kannst du im Ghetto sehen, wie alles verkommt?Denn sie hat alles verlorenKannst du die Tränen sehen, kannst du sie sehen?Sie würde nur zu gern dem Alltag entkommenSie wartet auf ihre ChanceKannst du das Ghetto sehen, kannst du es sehen?Kannst du jetzt sehen, wie er den Job jetzt verliert?Denn er hat alles verlorenKannst du das Ghetto sehen, kannst du es sehen?Und jetzt sag mir nochmal, ich schau' nicht nach vornWir haben alles verloren</t>
+          <t>[Verse 1]
+Mir fließt das Ghetto durch die Pulsadern – ich gebe dir dafür die Schuld, VaterDass bei uns damals die Bullen da waren
+So wie ich ist diese halbe scheiß Nation
+Wir sind den heißen Tropfen auf den kalten Steinen gewohnt
+Lass doch mal die Lügen seinWir knacken dafür keine Schlösser und das SEK tritt dafür keine Türen ein
+Sag mir endlich, wann kommt Ali ausm Knast?
+Ich hoffe nur, ich geb' dir mit dem Lied ein bisschen Kraft
+Ich bin der, der die Regeln bricht
+Und du wirst angehalten weil du als Kanacke in 'nem AMG Mercedes sitzt
+Du bist für sie nur wie Dreck und sie schließen dich wegUnd dann wird mir gesagt, ich handle nicht politisch korrekt
+Wie gern würden mich die Wichser in die Zelle bringen
+Weil in meiner Fangemeinde eh nur Kriminelle sind
+Ihr seid nur unzufrieden, deswegen wollt ihr mir den Mund verbietenIch hab' keine Lust meinen Mund zu schließen
+[Hook]
+Kannst du das Ghetto sehen, kannst du es sehen?
+Kannst du im Ghetto sehen, wie alles verkommt?
+Denn sie hat alles verloren
+Kannst du die Tränen sehen, kannst du sie sehen?
+Sie würde nur zu gern dem Alltag entkommen
+Sie wartet auf ihre Chance
+Kannst du das Ghetto sehen, kannst du es sehen?
+Kannst du jetzt sehen, wie er den Job jetzt verliert?
+Denn er hat alles verloren
+Kannst du das Ghetto sehen, kannst du es sehen?
+Und jetzt sag mir nochmal, ich schau' nicht nach vorn
+Wir haben alles verloren
+[Verse 2]
+Für deine Eltern jetzt der Albtraum in Person
+Das ist Gangster-Rap, denn ich rappe für ein paar Million'n
+Ja, der Kritiker, er spekuliert – und ich geb' ihm jetzt 'ne Hilfe
+Ich bin vorbestraft, asozial und tätowiert
+Gut erkannt, hier rappt der Junge über Knast
+Beim Echo fühlte ich mich wie ein unerwünschter Gast
+Falsches Lachen, denn sie hassen mich, ich spür' den krassen Neid
+Ja, ich bin der Typ, der im Supermarkt den Kassen greift
+Ihr wollt das echte Leben? Dann lasst mich aussprechen
+Ich kann noch mehr als nur Autotüren aufbrechen
+Kannst du seh'n, wie sich die Wolkendecke völlig schließt?
+Mein ganzer Lebensstil wird mich noch in die Hölle ziehen
+Ihr könnt mir den Tod wünschen
+Ich möchte einfach in den siebten Himmel, doch ich werd' mich in den siebten Tod sünden
+Das ist sieben, Junge – das hier ist das siebte Album
+Und ich bewahre immer noch die Haltung
+[Hook]
+Kannst du das Ghetto sehen, kannst du es sehen?
+Kannst du im Ghetto sehen, wie alles verkommt?
+Denn sie hat alles verloren
+Kannst du die Tränen sehen, kannst du sie sehen?
+Sie würde nur zu gern dem Alltag entkommen
+Sie wartet auf ihre Chance
+Kannst du das Ghetto sehen, kannst du es sehen?
+Kannst du jetzt sehen, wie er den Job jetzt verliert?
+Denn er hat alles verloren
+Kannst du das Ghetto sehen, kannst du es sehen?
+Und jetzt sag mir nochmal, ich schau' nicht nach vorn
+Wir haben alles verloren
+[Verse 3]
+Ich hab mir diesen Weg hier ausgesuchtUnd mag der Weg auch wieder steinig werden scheiß drauf ich geh die Strecke auch zu Fuß
+Was wollt ihr mir nur erzählen
+Ihr seid ein Haufen Opfer
+Ein Haufen Opfer dass man grade frisch ausgekotzt hat
+Scheiß egal wie viel Geld ich schon verdient habIch bleib für immer dieser Junge der gedealt hat
+Ich mach den Unterricht
+Den Unterricht für die Unterschicht
+Fresse es gibt keinen der mich unterbricht
+Sie versuchen mir die Art zu rappen auszureden
+Man dabei haben sie uns vor langer Zeit schon aufgegeben
+Ihr könnt mich abführen
+Hundert tausend Kriminelle die mein Album kaufen
+Könnt ihr diese Macht spüren
+Ihr könnt mich weg sperren
+Ihr könnt mich observieren
+Die Langeweile treibt mich dazu euch zu provozieren
+Es gibt keine Konkurrenz
+Und ich ficke eure Artgenossen
+Ich bin jetzt zurück jetzt wird scharf geschossen
+[Hook]
+Kannst du das Ghetto sehen, kannst du es sehen?
+Kannst du im Ghetto sehen, wie alles verkommt?
+Denn sie hat alles verloren
+Kannst du die Tränen sehen, kannst du sie sehen?
+Sie würde nur zu gern dem Alltag entkommen
+Sie wartet auf ihre Chance
+Kannst du das Ghetto sehen, kannst du es sehen?
+Kannst du jetzt sehen, wie er den Job jetzt verliert?
+Denn er hat alles verloren
+Kannst du das Ghetto sehen, kannst du es sehen?
+Und jetzt sag mir nochmal, ich schau' nicht nach vorn
+Wir haben alles verloren</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -799,9 +1372,82 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[Strophe I]YeahIch lad mich selber auf die Party ein, wo sind deine reichen Kids?Ich bin der einzige mit Iron-Mike-Tyson-SchnittIch war der Erste mit Zahnstocher drinUnd dein Vater ist ein Wichser, weil das Arschloch sich schminktDeine Eltern würden mich am liebsten hinter Gittern sehenIch würde deine Eltern gerne mit 'nem Tripper sehenJack Daniel's Gläser und dann ProstIch hab unter meinen Fingernägeln KoksSteht stramm salutiert, hier geht es nicht um mies oder freshIch hab die Picaldi-Jeans voller CashCL AMG, scheiß auf den KlimaeffektIch bin kein Schwiegersohn, ich bin Drogendealer, der rapptNenn' mich ab heute Sonny Escobar, ich führe das VolkKuck sie folgen mir, sie folgen diesem Typen aus GoldUnd ganz egal ob ich jetzt Geld machDeine Eltern sehen mich immer noch als den Abschaum der Gesellschaft[Hook] [2x]Du Bonzenjunge bist so arm dranWir sind genau diese Typen hierVon denen deine Eltern dich gewarnt habenDieser Abschaum der nicht nach vorne schautUnd wir jagen dich bis zum Morgengrauen
-[Strophe II]Wir sind einfache Jungs, Jungs die von der Straße sindIn deiner bunten Welt sind wir leider farbenblindKomm und gib mir einen triftigen GrundUnd ich ramm dir meinen Stift in den MundDas ist Kommunikation, du und dein StrebervereinÖffne die Haustür und der schwarze Nebel kommt reinUnd ich scheiß auf deine saubere WeltIch hab Schläge hier im Angebot, doch ich würde tauschen für GeldSiehst du keiner von uns lacht, siehst du keiner von uns hatAngst, wir haben Scheiße durchgemachtDieser Abschaum, der dich wie ein Schatten verfolgtUnd denkt bloß nicht, ich nehm' euch ganzen Ratten für vollJa ich reiß dir deinen Kopf abSchick ihn per post deiner FreundinSo wie bei 7 weil ich Bock habWer ist meine KragenweiteIch komm mir vor wie ein PitbullLeute wechseln wegen mir die Straßenseite[Hook] [2x]Du Bonzenjunge bist so arm dranWir sind genau diese Typen hierVon denen deine Eltern dich gewarnt habenDieser Abschaum der nicht nach vorne schautUnd wir jagen dich bis zum Morgengrauen
-[Strophe III: Bushido]:Ja, das Thema is' geklärtDeine Eltern haben Recht, ich gehöre in den Käfig eingesperrtIch passe nicht in dein Bild, du passt leider nicht in mein BildUnd ab heute bist du FreiwildIch bin der StaatsfeindUnd breche in dein scheiß Privatinternat einGewissen? Ich hab keinsWarte bis MitternachtMich halten die Rachegefühle hinter Gittern wachKuck was du Ficker machstSonny Al CaponeJunge da wo deine Eltern wohnenTauch ich auf um mein Geld zu holenHier im Herzen von BerlinWir hören wie dein Herz klopftDenn mir sind die Schmerzen jetzt zu vielWie eine Fledermaus seh' ich in der Nacht besserAlpha Jacke, Airmax, KlappmesserBei Nacht, ihr könnt nur hilflos zusehenWie ich euer Land therapier', ja, es tut weh[Hook] [2x]Du Bonzenjunge bist so arm dranWir sind genau diese Typen hierVon denen deine Eltern dich gewarnt habenDieser Abschaum der nicht nach vorne schautUnd wir jagen dich bis zum Morgengrauen</t>
+          <t>[Strophe I]
+Yeah
+Ich lad mich selber auf die Party ein, wo sind deine reichen Kids?
+Ich bin der einzige mit Iron-Mike-Tyson-Schnitt
+Ich war der Erste mit Zahnstocher drin
+Und dein Vater ist ein Wichser, weil das Arschloch sich schminkt
+Deine Eltern würden mich am liebsten hinter Gittern sehen
+Ich würde deine Eltern gerne mit 'nem Tripper sehen
+Jack Daniel's Gläser und dann Prost
+Ich hab unter meinen Fingernägeln Koks
+Steht stramm salutiert, hier geht es nicht um mies oder fresh
+Ich hab die Picaldi-Jeans voller Cash
+CL AMG, scheiß auf den Klimaeffekt
+Ich bin kein Schwiegersohn, ich bin Drogendealer, der rappt
+Nenn' mich ab heute Sonny Escobar, ich führe das Volk
+Kuck sie folgen mir, sie folgen diesem Typen aus Gold
+Und ganz egal ob ich jetzt Geld mach
+Deine Eltern sehen mich immer noch als den Abschaum der Gesellschaft
+[Hook] [2x]
+Du Bonzenjunge bist so arm dran
+Wir sind genau diese Typen hier
+Von denen deine Eltern dich gewarnt haben
+Dieser Abschaum der nicht nach vorne schaut
+Und wir jagen dich bis zum Morgengrauen
+[Strophe II]
+Wir sind einfache Jungs, Jungs die von der Straße sind
+In deiner bunten Welt sind wir leider farbenblind
+Komm und gib mir einen triftigen Grund
+Und ich ramm dir meinen Stift in den Mund
+Das ist Kommunikation, du und dein Streberverein
+Öffne die Haustür und der schwarze Nebel kommt rein
+Und ich scheiß auf deine saubere Welt
+Ich hab Schläge hier im Angebot, doch ich würde tauschen für Geld
+Siehst du keiner von uns lacht, siehst du keiner von uns hat
+Angst, wir haben Scheiße durchgemacht
+Dieser Abschaum, der dich wie ein Schatten verfolgt
+Und denkt bloß nicht, ich nehm' euch ganzen Ratten für voll
+Ja ich reiß dir deinen Kopf ab
+Schick ihn per post deiner Freundin
+So wie bei 7 weil ich Bock hab
+Wer ist meine Kragenweite
+Ich komm mir vor wie ein Pitbull
+Leute wechseln wegen mir die Straßenseite
+[Hook] [2x]
+Du Bonzenjunge bist so arm dran
+Wir sind genau diese Typen hier
+Von denen deine Eltern dich gewarnt haben
+Dieser Abschaum der nicht nach vorne schaut
+Und wir jagen dich bis zum Morgengrauen
+[Strophe III: Bushido]:
+Ja, das Thema is' geklärt
+Deine Eltern haben Recht, ich gehöre in den Käfig eingesperrt
+Ich passe nicht in dein Bild, du passt leider nicht in mein Bild
+Und ab heute bist du Freiwild
+Ich bin der Staatsfeind
+Und breche in dein scheiß Privatinternat ein
+Gewissen? Ich hab keins
+Warte bis Mitternacht
+Mich halten die Rachegefühle hinter Gittern wach
+Kuck was du Ficker machst
+Sonny Al Capone
+Junge da wo deine Eltern wohnen
+Tauch ich auf um mein Geld zu holen
+Hier im Herzen von Berlin
+Wir hören wie dein Herz klopft
+Denn mir sind die Schmerzen jetzt zu viel
+Wie eine Fledermaus seh' ich in der Nacht besser
+Alpha Jacke, Airmax, Klappmesser
+Bei Nacht, ihr könnt nur hilflos zusehen
+Wie ich euer Land therapier', ja, es tut weh
+[Hook] [2x]
+Du Bonzenjunge bist so arm dran
+Wir sind genau diese Typen hier
+Von denen deine Eltern dich gewarnt haben
+Dieser Abschaum der nicht nach vorne schaut
+Und wir jagen dich bis zum Morgengrauen</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -855,9 +1501,93 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[Songtext zu „Zeiten ändern sich“][Part 1]Ghettostory, Ghettojunge, dieser Mann war ziemlich brokeLeider spielte MTV keines meiner VideosKeine Kohle, nur Routine, Nummer ziehen beim ArbeitsamtArbeitsdrang? Fehlanzeige, der Konsum von Gras begannImmer kalkulieren, was kann ich bei Lidl kaufenHeut könnt ich mir einen ganzen Lidl kaufenHast du was, bist du was, die Wichser wollten meine Wohnung pfändenIch kauf mir 'ne Villa und kann D-Bo meine Wohnung schenkenZeiten ändern sich, damals hatte ich keinen PfennigHeute sagt mir Kay fast immer: „Leih mir mal paar Scheine Anis“Zeit für Tennis, Zeit für Golf, Zeit für nix, Zeit zum ShoppenEGJ, ich laufe ins Büro rein, Zeit zum MobbenFrüher war Mama bei der BäckereiHeute hat sie so viel Geld, sie könnt selber Rapper seinFick das Finanzamt, die Pumpgun im WandschrankVerdammt man, ich lade nach, mich macht dieses Saldo auf der Bank krank[Hook]Ich wurde von euch ausgelachtIhr Missgeburten habt geredet, ich hab drauf gekacktSeid ihr Fotzen aufgewachtGuck, ich verkaufe was, 500.000, krassKaufe mir 'nen Traumpalast, Zeiten ändern sichWer hat sich was draus gemachtIhr falschen Schlangen habt geredet, ich hab drauf gekacktJa, sie hören den Sound im KnastIch verkaufe was, 500.000, krassDas hier ist mein TraumpalastZeiten ändern sich
-[Part 2]Ghettostory, Ghettojunge, Sonny war im Block der GDu fragst mich: „Wie spät?“ und danach: „Shit, was kostet die?“Früher der Asoziale, der sich reiche Mädchen suchtHeute der Asoziale, den ein reiches Mädchen suchtWas für La Martina, ich hatt‘ irgendeine Scheiße anHeute lauf ich rein in meinen KleiderschrankIch habe Sachen von Designern an, das war nicht immer soDamals noch zu fünft in zwei Zimmern wohnenIch bin Steuerzahler, 7er mit AllradMeine Mutter wusste nichts, Dealen war mein AlltagFick auf das Gesetz, die Kohle wurde knappScheiß auf Günter Jauch, ich hab die Millionen schon geknacktWer ich bin? King Bushido. Ich bin kein GeschäftsmannErsguterjunge, ich bin ein Geschäft, Mann, das sind 200.000Und diese 200.000 Kette konnt ich einfach so kaufen[Hook]Ich wurde von euch ausgelachtIhr Missgeburten habt geredet, ich hab drauf gekacktSeid ihr Fotzen aufgewachtGuck, ich verkaufe was, 500.000, krassKaufe mir 'nen Traumpalast, Zeiten ändern sichWer hat sich was draus gemachtIhr falschen Schlangen habt geredet, ich hab drauf gekacktJa, sie hören den Sound im KnastIch verkaufe was, 500.000, krassDas hier ist mein TraumpalastZeiten ändern sich
-[Part 3]Ghettostory, Ghettojunge, kriminelles BlutDas ist meine Attitüde und nicht irgendein VersuchIch hab einfach Bock darauf gehabtIch hab den Dreck in meinen Kofferraum gepacktUnd diesen Stoff verkauft bei NachtGuck unter dein Kopfkissen, 10.000 EuroDoch bevor ich geh, werd ich noch deinen Kopf küssenIch denk zurück und ja, es lohnte sich hier drauf zu wartenIch hab ein Haus und Garten, 10.000 verkaufte Karten. Yeah!Wie konnt ich ahnen, was heute so passiertUnd ich dachte nie, dass ich dadurch Freunde so verlierDas ist meine Denkweise. Wer will diskutierenIch seh rot und komme mit der Herde wie ein StierImmer noch derselbe, heute wird nur ausgepacktIch wollte nie in euer Bild passen, ich hab drauf gekacktUnd was ihr redet interessiert diesen Gangster nichtAlle Preise abgeräumtZeiten ändern sich[Hook]Ich wurde von euch ausgelachtIhr Missgeburten habt geredet, ich hab drauf gekacktSeid ihr Fotzen aufgewachtGuck, ich verkaufe was, 500.000, krassKaufe mir 'nen Traumpalast, Zeiten ändern sichWer hat sich was draus gemachtIhr falschen Schlangen habt geredet, ich hab drauf gekacktJa, sie hören den Sound im KnastIch verkaufe was, 500.000, krassDas hier ist mein TraumpalastZeiten ändern sich</t>
+          <t>[Songtext zu „Zeiten ändern sich“]
+[Part 1]
+Ghettostory, Ghettojunge, dieser Mann war ziemlich broke
+Leider spielte MTV keines meiner Videos
+Keine Kohle, nur Routine, Nummer ziehen beim Arbeitsamt
+Arbeitsdrang? Fehlanzeige, der Konsum von Gras begann
+Immer kalkulieren, was kann ich bei Lidl kaufenHeut könnt ich mir einen ganzen Lidl kaufen
+Hast du was, bist du was, die Wichser wollten meine Wohnung pfänden
+Ich kauf mir 'ne Villa und kann D-Bo meine Wohnung schenken
+Zeiten ändern sich, damals hatte ich keinen Pfennig
+Heute sagt mir Kay fast immer: „Leih mir mal paar Scheine Anis“
+Zeit für Tennis, Zeit für Golf, Zeit für nix, Zeit zum Shoppen
+EGJ, ich laufe ins Büro rein, Zeit zum Mobben
+Früher war Mama bei der BäckereiHeute hat sie so viel Geld, sie könnt selber Rapper sein
+Fick das Finanzamt, die Pumpgun im Wandschrank
+Verdammt man, ich lade nach, mich macht dieses Saldo auf der Bank krank
+[Hook]
+Ich wurde von euch ausgelacht
+Ihr Missgeburten habt geredet, ich hab drauf gekackt
+Seid ihr Fotzen aufgewacht
+Guck, ich verkaufe was, 500.000, krass
+Kaufe mir 'nen Traumpalast, Zeiten ändern sich
+Wer hat sich was draus gemacht
+Ihr falschen Schlangen habt geredet, ich hab drauf gekackt
+Ja, sie hören den Sound im Knast
+Ich verkaufe was, 500.000, krass
+Das hier ist mein Traumpalast
+Zeiten ändern sich
+[Part 2]
+Ghettostory, Ghettojunge, Sonny war im Block der G
+Du fragst mich: „Wie spät?“ und danach: „Shit, was kostet die?“
+Früher der Asoziale, der sich reiche Mädchen sucht
+Heute der Asoziale, den ein reiches Mädchen sucht
+Was für La Martina, ich hatt‘ irgendeine Scheiße an
+Heute lauf ich rein in meinen Kleiderschrank
+Ich habe Sachen von Designern an, das war nicht immer so
+Damals noch zu fünft in zwei Zimmern wohnen
+Ich bin Steuerzahler, 7er mit Allrad
+Meine Mutter wusste nichts, Dealen war mein Alltag
+Fick auf das Gesetz, die Kohle wurde knapp
+Scheiß auf Günter Jauch, ich hab die Millionen schon geknackt
+Wer ich bin? King Bushido. Ich bin kein Geschäftsmann
+Ersguterjunge, ich bin ein Geschäft, Mann, das sind 200.000
+Und diese 200.000 Kette konnt ich einfach so kaufen
+[Hook]
+Ich wurde von euch ausgelacht
+Ihr Missgeburten habt geredet, ich hab drauf gekackt
+Seid ihr Fotzen aufgewacht
+Guck, ich verkaufe was, 500.000, krass
+Kaufe mir 'nen Traumpalast, Zeiten ändern sich
+Wer hat sich was draus gemacht
+Ihr falschen Schlangen habt geredet, ich hab drauf gekackt
+Ja, sie hören den Sound im Knast
+Ich verkaufe was, 500.000, krass
+Das hier ist mein Traumpalast
+Zeiten ändern sich
+[Part 3]
+Ghettostory, Ghettojunge, kriminelles Blut
+Das ist meine Attitüde und nicht irgendein Versuch
+Ich hab einfach Bock darauf gehabt
+Ich hab den Dreck in meinen Kofferraum gepackt
+Und diesen Stoff verkauft bei Nacht
+Guck unter dein Kopfkissen, 10.000 Euro
+Doch bevor ich geh, werd ich noch deinen Kopf küssen
+Ich denk zurück und ja, es lohnte sich hier drauf zu warten
+Ich hab ein Haus und Garten, 10.000 verkaufte Karten. Yeah!
+Wie konnt ich ahnen, was heute so passiert
+Und ich dachte nie, dass ich dadurch Freunde so verlier
+Das ist meine Denkweise. Wer will diskutieren
+Ich seh rot und komme mit der Herde wie ein Stier
+Immer noch derselbe, heute wird nur ausgepackt
+Ich wollte nie in euer Bild passen, ich hab drauf gekackt
+Und was ihr redet interessiert diesen Gangster nicht
+Alle Preise abgeräumt
+Zeiten ändern sich
+[Hook]
+Ich wurde von euch ausgelacht
+Ihr Missgeburten habt geredet, ich hab drauf gekackt
+Seid ihr Fotzen aufgewacht
+Guck, ich verkaufe was, 500.000, krass
+Kaufe mir 'nen Traumpalast, Zeiten ändern sich
+Wer hat sich was draus gemacht
+Ihr falschen Schlangen habt geredet, ich hab drauf gekackt
+Ja, sie hören den Sound im Knast
+Ich verkaufe was, 500.000, krass
+Das hier ist mein Traumpalast
+Zeiten ändern sich</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -911,9 +1641,119 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[Strophe 1]Ich hörte von den meisten Frauen, ich hab es nicht ernst gemeintVon den meisten Frauen, ich hätte ein Herz aus SteinWie kann ein Mann Schmerzen zeigen wenn er gar nichts fühlt?Bei einer Schlampe wird ein Mann doch automatisch kühlBis jetzt hab ich mich nur einmal verliebtSogar das war einmal zu viel!Ich scheiße auf das Spiel, ich bin nicht dafür geschaffenEs tut mir leid!Deine Frau geht fremd? Du bist ein HundWenn du verzeihst!Ich bin wählerisch. Nein, ich versteh nur nichtWarum heutzutage keine Frau was auf die Ehre gibtIch will nur Eine die mich respektiertDie weiß, dass Freundschaft zwischen Mann und Frau nicht existiertDie nicht fremd geht, Flirten ist schon FremdgehenNur ein Blick reicht und ich lasse diesen Menschen stehenEs war ein Fehler diese Frau zu suchenDiesen Engel unter 1000 HurenUnd jetzt frag ich mich:[Refrain]Gibt es dich?Ich bin allein und jetzt fickt es michWeil ich mir täglich diese Frage stelleGibt es dich?Gibt es dich?Ich weißDu glaubst mir die Geschichte nichtIch such dich schon mein Leben langSag, gibt es dich?Gibt es dich?Ich bin allein und jetzt fickt es michWeil ich mir täglich diese Frage stelleGibt es dich?Gibt es dich?Ich weißDu glaubst mir die Geschichte nichtIch such dich schon mein Leben langSag, gibt es dich?
-[Strophe 2]Gibt es dich? Eine die zufrieden ist mit mirFalls ich dich je finden sollte, dann verriegel ich die Tür!Eine Frau die keine Disko brauchtWo nicht mal ein Idiot sagen kann: Ich hab sie gefickt, die FrauKeine MySpace Schlampe, die sind alle gleichEs reicht schon wenn ich sag: Hier mein 7er, steig ein!Ich geb dir jetzt ein Beispiel:Sie meint,dass sie auf jeden Typen scheißt? Warum hat sie dann Minirock und Highheels?Der man trauen kann weil man einfach keine Scheiße hörtDie es nicht nötig hat auf jeden Scheiß zu schwörenWo ich ganz genau weiß; Reißt sie heute jemand anders auf?Nein! Meine Frau! Sie ist daheim!Eine,die mit mir im Kino wärIch mein im Kino wärAuch wenn ich nicht dieser Bushido wärUnd glaub mir echt: Es war ein Fehler, diese Frau zu suchenDiesen Engel unter 1000 HurenUnd jetzt frag ich dich:[Refrain]Gibt es dich?Ich bin allein und jetzt fickt es michWeil ich mir täglich diese Frage stelleGibt es dich?Gibt es dich?Ich weißDu glaubst mir die Geschichte nichtIch such dich schon mein Leben langSag, gibt es dich?Gibt es dich?Ich bin allein und jetzt fickt es michWeil ich mir täglich diese Frage stelleGibt es dich?Gibt es dich?Ich weißDu glaubst mir die Geschichte nichtIch such dich schon mein Leben langSag, gibt es dich?
-[Strophe 3]Eine bei der ich stolz sagen kann: 'Sie ist schwanger.'Bei der ich sagen kann: 'Ich bin mit ihr zufrieden, Mama.'Ich fühl mich gut bei ihr und spüre die GeborgenheitUnd mich nicht fragen muss mit wem sie es wohl morgen treibtDie bei mir bleibt, die zu ihrem Chef sagt:"Mein Freund ist der Grund Warum ich auf den Termin pfeif"Du bist Karrierefrau, dann reise um die WeltGenieß deinen eigenen Urlaub von deinem eigenen GeldEine Bei der ich nie mehr fragen müsste: 'Gibt es dich?'Weil ich sie gefunden hätte. Im Moment fickt es michUnd die nicht gutgläubig mit dem besten Kumpel chilltMänner sind schwanzgesteuert! Merkst du was dein Kumpel will?Du siehst doch wie sie sich mit 16 schon aufstylenAm Wochenende, Party, Alkohol, drauf seinEs war ein Fehler diese Frau zu suchenDiesen Engel unter 1000 HurenUnd zum letzten Mal:[Refrain]Gibt es dich?Ich bin allein und jetzt fickt es michWeil ich mir täglich diese Frage stelleGibt es dich?Gibt es dich?Ich weißDu glaubst mir die Geschichte nichtIch such dich schon mein Leben langSag, gibt es dich?Gibt es dich?Ich bin allein und jetzt fickt es michWeil ich mir täglich diese Frage stelleGibt es dich?Gibt es dich?Ich weißDu glaubst mir die Geschichte nichtIch such dich schon mein Leben langSag, gibt es dich?</t>
+          <t>[Strophe 1]
+Ich hörte von den meisten Frauen, ich hab es nicht ernst gemeint
+Von den meisten Frauen, ich hätte ein Herz aus Stein
+Wie kann ein Mann Schmerzen zeigen wenn er gar nichts fühlt?
+Bei einer Schlampe wird ein Mann doch automatisch kühl
+Bis jetzt hab ich mich nur einmal verliebtSogar das war einmal zu viel!
+Ich scheiße auf das Spiel, ich bin nicht dafür geschaffen
+Es tut mir leid!
+Deine Frau geht fremd? Du bist ein Hund
+Wenn du verzeihst!
+Ich bin wählerisch. Nein, ich versteh nur nicht
+Warum heutzutage keine Frau was auf die Ehre gibt
+Ich will nur Eine die mich respektiert
+Die weiß, dass Freundschaft zwischen Mann und Frau nicht existiert
+Die nicht fremd geht, Flirten ist schon Fremdgehen
+Nur ein Blick reicht und ich lasse diesen Menschen stehen
+Es war ein Fehler diese Frau zu suchen
+Diesen Engel unter 1000 Huren
+Und jetzt frag ich mich:
+[Refrain]
+Gibt es dich?
+Ich bin allein und jetzt fickt es mich
+Weil ich mir täglich diese Frage stelle
+Gibt es dich?
+Gibt es dich?
+Ich weiß
+Du glaubst mir die Geschichte nicht
+Ich such dich schon mein Leben lang
+Sag, gibt es dich?
+Gibt es dich?
+Ich bin allein und jetzt fickt es mich
+Weil ich mir täglich diese Frage stelle
+Gibt es dich?
+Gibt es dich?
+Ich weiß
+Du glaubst mir die Geschichte nicht
+Ich such dich schon mein Leben lang
+Sag, gibt es dich?
+[Strophe 2]
+Gibt es dich? Eine die zufrieden ist mit mir
+Falls ich dich je finden sollte, dann verriegel ich die Tür!
+Eine Frau die keine Disko braucht
+Wo nicht mal ein Idiot sagen kann: Ich hab sie gefickt, die Frau
+Keine MySpace Schlampe, die sind alle gleich
+Es reicht schon wenn ich sag: Hier mein 7er, steig ein!
+Ich geb dir jetzt ein Beispiel:
+Sie meint,dass sie auf jeden Typen scheißt? Warum hat sie dann Minirock und Highheels?
+Der man trauen kann weil man einfach keine Scheiße hört
+Die es nicht nötig hat auf jeden Scheiß zu schwören
+Wo ich ganz genau weiß; Reißt sie heute jemand anders auf?
+Nein! Meine Frau! Sie ist daheim!
+Eine,die mit mir im Kino wär
+Ich mein im Kino wär
+Auch wenn ich nicht dieser Bushido wär
+Und glaub mir echt: Es war ein Fehler, diese Frau zu suchen
+Diesen Engel unter 1000 Huren
+Und jetzt frag ich dich:
+[Refrain]
+Gibt es dich?
+Ich bin allein und jetzt fickt es mich
+Weil ich mir täglich diese Frage stelle
+Gibt es dich?
+Gibt es dich?
+Ich weiß
+Du glaubst mir die Geschichte nicht
+Ich such dich schon mein Leben lang
+Sag, gibt es dich?
+Gibt es dich?
+Ich bin allein und jetzt fickt es mich
+Weil ich mir täglich diese Frage stelle
+Gibt es dich?
+Gibt es dich?
+Ich weiß
+Du glaubst mir die Geschichte nicht
+Ich such dich schon mein Leben lang
+Sag, gibt es dich?
+[Strophe 3]
+Eine bei der ich stolz sagen kann: 'Sie ist schwanger.'
+Bei der ich sagen kann: 'Ich bin mit ihr zufrieden, Mama.'
+Ich fühl mich gut bei ihr und spüre die Geborgenheit
+Und mich nicht fragen muss mit wem sie es wohl morgen treibt
+Die bei mir bleibt, die zu ihrem Chef sagt:
+"Mein Freund ist der Grund Warum ich auf den Termin pfeif"
+Du bist Karrierefrau, dann reise um die Welt
+Genieß deinen eigenen Urlaub von deinem eigenen Geld
+Eine Bei der ich nie mehr fragen müsste: 'Gibt es dich?'
+Weil ich sie gefunden hätte. Im Moment fickt es mich
+Und die nicht gutgläubig mit dem besten Kumpel chillt
+Männer sind schwanzgesteuert! Merkst du was dein Kumpel will?
+Du siehst doch wie sie sich mit 16 schon aufstylen
+Am Wochenende, Party, Alkohol, drauf sein
+Es war ein Fehler diese Frau zu suchen
+Diesen Engel unter 1000 Huren
+Und zum letzten Mal:
+[Refrain]
+Gibt es dich?
+Ich bin allein und jetzt fickt es mich
+Weil ich mir täglich diese Frage stelle
+Gibt es dich?
+Gibt es dich?
+Ich weiß
+Du glaubst mir die Geschichte nicht
+Ich such dich schon mein Leben lang
+Sag, gibt es dich?
+Gibt es dich?
+Ich bin allein und jetzt fickt es mich
+Weil ich mir täglich diese Frage stelle
+Gibt es dich?
+Gibt es dich?
+Ich weiß
+Du glaubst mir die Geschichte nicht
+Ich such dich schon mein Leben lang
+Sag, gibt es dich?</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -967,9 +1807,71 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[Verse 1: Bushido &amp; Kay One]Ich lade nach, ich bleibe kriminell, gefährlich und ein AußenseiterIch schlag die Steine jetzt zu Staub, ich verkauf es einfachGlaub mir, ich gebe einen Scheiß darauf du schwuler StricherSoll das ein Scherz sein, du kugelsicherer Jugendlicher?Ich bleib der King auf dem Pausenhof in deinem BlockPausenlos im iPod, draußen fick ich deinen KopfIch bin asozial wie keiner, gib die Basy, KayIch lass deine teure Uhr verschwinden so wie David BlaineLass es ruhig zwölf werden, ich komm zum StreetfightUnd ich sag es offiziell, Samy kann nicht freestylenIch fick das ganze Land, weil keiner dran geglaubt hatKeiner, nur dieser Junge aus der HauptstadtIch lach mich tot, was, du boxt jeden Rapper um?Ich boxe dich, das Gesocks und die Rapper, PunktIch tret' alleine mit den Thaiboxern aufBitte sag mir endlich, wann wacht ihr scheiß Fotzen auf?[Hook: Bushido &amp; Kay One]Diese Nacht, dieses Leben, diese Bullen, diese GegendKeine Sonne, zu viel Regen, ich hab KopfschmerzenDieser Schatten, diese Tränen, diese Aggression in jedemUnd ich krieg von diesem scheiß Gelaber KopfschmerzenSpür' den Hass, keine Regeln, diese Nutten, die hier klebenJeder Tag ist grau, scheiße, so viel KopfschmerzenDieser Schatten, dieser Zorn, gewaltbereit, ich hab was vorUnd ich krieg' von deiner Fresse immer Kopfschmerzen
-[Verse 2: Bushido &amp; Kay One]Vor 2 Jahren hab ich gesagt, es soll verrecken, das SplashKaum zu glauben, wenig später hieß es „Rettet das Splash!“Man wird sind nicht bei Vendetta, das hier ist nicht Carlo CokxxIch muss dich erziehen, Junge, das hier ist GuantanamoIch zeig dir mein Milieu, scheiß auf deine FremdsprachenSchwarze Lederjacken sind bei uns im Sommer TrendfarbenTrendfarben, scheiß auf deine PressekonferenzSag wie hieß der eine Rapper da? Bässe Sultan Hengzt?Schon vergessen! Interessiert mich nicht!Mich interessiert nur was ich kann, was ich hab, wo ich bin und ob der Beef mich ficktIch fick dein Leben Junge, du hast null PersönlichkeitDu hast ein Label, aber Geld hast du womöglich keinsSo viel zu dem Ghetto hier, Oberkörper tätowiertGeld, Drogen, Sex und für Kay noch mal den Jacky, yeahIhr habt euch zu 'nem Missgeburten vereintDeswegen passt auch die Bezeichnung „Missgeburtenverein“[Hook: Bushido &amp; Kay One]Diese Nacht, dieses Leben, diese Bullen, diese GegendKeine Sonne, zu viel Regen, ich hab KopfschmerzenDieser Schatten, diese Tränen, diese Aggression in jedemUnd ich krieg von diesem scheiß Gelaber KopfschmerzenSpür' den Hass, keine Regeln, diese Nutten, die hier klebenJeder Tag ist grau, scheiße, so viel KopfschmerzenDieser Schatten, dieser Zorn, gewaltbereit, ich hab was vorUnd ich krieg' von deiner Fresse immer Kopfschmerzen
-[Verse 3: Bushido &amp; Kay One]Ich behandle euch wie Drecksnutten, so wie im KiezJedes Video wird gespielt, das Mafiosi PrinzipSonny Black, in meinem alter passiert mehrFresse Junge, du bist mir zu alternativ (yeah!)Yeah, es wird dunkel wenn ich durch mein Viertel laufProgrammier' die Kick, du willst tanzen und du Krüppel bouncedScheiß auf dich, dein Abitur, ich fick den UnterrichtErste Stunde und ich bleibe der, der deine Mutter ficktKriminell, 22, sag mir was der Richter willAfter-Party, yeah, ich geh raus und fick mit BillBring mir ein Rapper, der es schafft mit mir zu fickenRed' mal deutsch, Hundesohn, ich halt nich viel vom SpittenScheiß auf dich, das ist Gangster wie Carlito's WayProvozier' die Bullen, gib bei YouTube ein: "Bushido Kay"Schlampe ich hab für dein Storytelling wenig ZeitGuck ich hab jetzt offiziell mit jedem Streit[Hook: Bushido &amp; Kay One]Diese Nacht, dieses Leben, diese Bullen, diese GegendKeine Sonne, zu viel Regen, ich hab KopfschmerzenDieser Schatten, diese Tränen, diese Aggression in jedemUnd ich krieg von diesem scheiß Gelaber KopfschmerzenSpür' den Hass, keine Regeln, diese Nutten, die hier klebenJeder Tag ist grau, scheiße, so viel KopfschmerzenDieser Schatten, dieser Zorn, gewaltbereit, ich hab was vorUnd ich krieg' von deiner Fresse immer Kopfschmerzen</t>
+          <t>[Verse 1:Bushido&amp; Kay One]
+Ich lade nach, ich bleibe kriminell, gefährlich und ein Außenseiter
+Ich schlag die Steine jetzt zu Staub, ich verkauf es einfach
+Glaub mir, ich gebe einen Scheiß darauf du schwuler Stricher
+Soll das ein Scherz sein, du kugelsicherer Jugendlicher?
+Ich bleib der King auf dem Pausenhof in deinem Block
+Pausenlos im iPod, draußen fick ich deinen Kopf
+Ich bin asozial wie keiner, gib die Basy, Kay
+Ich lass deine teure Uhr verschwinden so wie David Blaine
+Lass es ruhig zwölf werden, ich komm zum Streetfight
+Und ich sag es offiziell, Samy kann nicht freestylen
+Ich fick das ganze Land, weil keiner dran geglaubt hat
+Keiner, nurdieser Junge aus der Hauptstadt
+Ich lach mich tot, was, du boxt jeden Rapper um?
+Ich boxe dich, das Gesocks und die Rapper,Punkt
+Ich tret' alleine mit den Thaiboxern auf
+Bitte sag mir endlich,wann wacht ihr scheiß Fotzen auf?
+[Hook:Bushido&amp; Kay One]
+Diese Nacht, dieses Leben, diese Bullen, diese Gegend
+Keine Sonne, zu viel Regen, ich hab Kopfschmerzen
+Dieser Schatten, diese Tränen, diese Aggression in jedem
+Und ich krieg von diesem scheiß GelaberKopfschmerzen
+Spür' den Hass, keine Regeln, diese Nutten, die hier kleben
+Jeder Tag ist grau, scheiße, so viel Kopfschmerzen
+Dieser Schatten, dieser Zorn, gewaltbereit, ich hab was vor
+Und ich krieg' von deiner Fresse immer Kopfschmerzen
+[Verse 2:Bushido&amp; Kay One]
+Vor 2 Jahren hab ich gesagt, es soll verrecken, das SplashKaum zu glauben, wenig später hieß es „Rettet das Splash!“
+Man wird sind nicht bei Vendetta, das hier ist nicht Carlo CokxxIch muss dich erziehen, Junge, das hier ist Guantanamo
+Ich zeig dir mein Milieu, scheiß auf deine Fremdsprachen
+Schwarze Lederjackensind bei uns im Sommer Trendfarben
+Trendfarben, scheiß auf deine Pressekonferenz
+Sag wie hieß der eine Rapper da?Bässe Sultan Hengzt?Schon vergessen! Interessiert mich nicht!Mich interessiert nur was ich kann, was ich hab, wo ich bin und ob der Beef mich fickt
+Ich fick dein Leben Junge, du hast null Persönlichkeit
+Du hast ein Label, aber Geld hast du womöglich keins
+So viel zu dem Ghetto hier,Oberkörper tätowiert
+Geld, Drogen, Sex und für Kay noch mal den Jacky, yeah
+Ihr habt euch zu 'nem Missgeburten vereint
+Deswegen passt auch die Bezeichnung „Missgeburtenverein“
+[Hook: Bushido &amp; Kay One]
+Diese Nacht, dieses Leben, diese Bullen, diese Gegend
+Keine Sonne, zu viel Regen, ich hab Kopfschmerzen
+Dieser Schatten, diese Tränen, diese Aggression in jedem
+Und ich krieg von diesem scheiß Gelaber KopfschmerzenSpür' den Hass, keine Regeln, diese Nutten, die hier kleben
+Jeder Tag ist grau, scheiße, so viel Kopfschmerzen
+Dieser Schatten, dieser Zorn, gewaltbereit, ich hab was vor
+Und ich krieg' von deiner Fresse immer Kopfschmerzen
+[Verse 3: Bushido &amp; Kay One]
+Ich behandle euch wie Drecksnutten, so wie im KiezJedes Video wird gespielt, das Mafiosi PrinzipSonny Black, in meinem alter passiert mehrFresse Junge, du bist mir zu alternativ (yeah!)Yeah, es wird dunkel wenn ich durch mein Viertel laufProgrammier' die Kick, du willst tanzen und du Krüppel bouncedScheiß auf dich, dein Abitur, ich fick den UnterrichtErste Stunde und ich bleibe der, der deine Mutter fickt
+Kriminell, 22, sag mir was der Richter will
+After-Party, yeah, ich geh raus und fick mit Bill
+Bring mir ein Rapper, der es schafft mit mir zu ficken
+Red' mal deutsch, Hundesohn, ich halt nich viel vom Spitten
+Scheiß auf dich, das ist Gangster wie Carlito's Way
+Provozier' die Bullen, gib bei YouTube ein: "Bushido Kay"
+Schlampe ich hab für dein Storytelling wenig Zeit
+Guck ich hab jetzt offiziell mit jedem Streit
+[Hook: Bushido &amp; Kay One]
+Diese Nacht, dieses Leben, diese Bullen, diese Gegend
+Keine Sonne, zu viel Regen, ich hab Kopfschmerzen
+Dieser Schatten, diese Tränen, diese Aggression in jedem
+Und ich krieg von diesem scheiß Gelaber KopfschmerzenSpür' den Hass, keine Regeln, diese Nutten, die hier kleben
+Jeder Tag ist grau, scheiße, so viel Kopfschmerzen
+Dieser Schatten, dieser Zorn, gewaltbereit, ich hab was vor
+Und ich krieg' von deiner Fresse immer Kopfschmerzen</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1023,9 +1925,104 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[Verse 1]Merkst du, wo du hier gelandet bist?Zum ersten Mal siehst du Junkies verwahrlostVon Angesicht zu AngesichtJa, im Wannsee bist du gut dranRed nicht von BerlinDu warst nur auf Klassenfahrt am KudammHier gibt es BetonklötzeWo über tausend Menschen reinpassenWo sie einen wie dich nicht vorbeilassenDu wirst hier nie reinpassenDas ist Smog aus der UnterweltBullen kommen und du hast dich dumm zu stellenHörst du die Hunde bellen?Sie suchen RauschgiftKinder wachsen auf zwischen Fußball und BlaulichtZufall? Ich glaub nichtDu kannst dir hier nicht mal eine Straße merkenWeil du mit nem Kuhstall vertraut bistMerkst du, wie die Himmeldecke schwarz wird?Der Ort, wo ein kleines Mädchen angezündet wurdeUnd im Park stirbtJeder Tag wird anders als bei dir seinDoch ich weiß, dass ich in Berlin bleib[Hook]Und wenn die Wolken sich zusammenziehenUnd du die Hand nicht mehr vor Augen siehstWenn man dich schon zwingt, Schmuck auszuziehenWo man Brüder zur Begrüßung auf die Wange küsstMerkst du gerade, wo du hier gelandet bistUnd wenn die Wolken sich zusammenziehenUnd du die Hand nicht mehr vor Augen siehstWenn man dich schon zwingt, Schmuck auszuziehenWo man Brüder zur Begrüßung auf die Wange küsstMerkst du gerade, wo du hier gelandet bist
-[Verse 2]Merkst du, wo du hier gelandet bist?Wo du beim Einkaufen Penner in der Schlange triffstIch würd gern lachen, doch ich kann es nicht, kann es nichtWo deine Hoffnung wie ne Sandburg zusammenbrichtScheiß auf die lange SichtKokain, ich puste goldenen Staub rausGuter Guss zwingt deine Fotzen in den KaufrauschMeine Freunde wurden abgeschobenDenn meine Freunde haben dich mit Freude abgezogenWarum machst du immer noch auf hartIn der Stadt die niemals schläft?Jeder Zweite hat die Höfe aus dem Knast schon gesehenIch schick dich back in deinen BauernstallUnd vielleicht findest du in deiner Drecksscheune auch´n MauerfallFür den Touristen die Nutten auf den StandstreifenUnd wenn die Kohle stimmt, kannst du sie auch anscheißenDas ist die Stadt, wo jetzt jeder drüber reden kannWo du nur als Berliner überleben kannst[Hook]Und wenn die Wolken sich zusammenziehenUnd du die Hand nicht mehr vor Augen siehstWenn man dich schon zwingt, Schmuck auszuziehenWo man Brüder zur Begrüßung auf die Wange küsstMerkst du gerade, wo du hier gelandet bistUnd wenn die Wolken sich zusammenziehenUnd du die Hand nicht mehr vor Augen siehstWenn man dich schon zwingt, Schmuck auszuziehenWo man Brüder zur Begrüßung auf die Wange küsstMerkst du gerade, wo du hier gelandet bist
-[Verse 3]Merkst du, wo du hier gelandet bist?Wenn du auf der Straße Jugendbanden triffstPlatzwunden, wenn dich die Stange trifftFür deine rosarote Brille gibt es keinen PlatzIch will ne Entschuldigung und scheiß drauf, ob du Zeit hastDu bist der nächste tote Mann, der von der Klippe rolltHab ich dir nicht grad gesagt, dass du dich verpissen sollst?Das ist kein SzenetreffDas ist der Mond, der auf die Stadt scheintVon Abgasen siehst du diese Nebel jetztWir sind die AugenDie aus dunklen Gassen schauenDer Grund, warum sich Eltern nicht auf die Terrassen trauenEs sind die Straßen hierWir sind das UrgesteinWenn du mit uns reden solltest, halt dein Abitur geheimIch seh den AngstschweißWeil du wie Dreck stinkstDu bist ein Landei, noch dazu ein CrackkindGeh mir aus dem AugenIch bin der, der das Berliner Wappen hältHerzlich willkommen in der Schattenwelt[Hook]Und wenn die Wolken sich zusammenziehenUnd du die Hand nicht mehr vor Augen siehstWenn man dich schon zwingt, Schmuck auszuziehenWo man Brüder zur Begrüßung auf die Wange küsstMerkst du gerade, wo du hier gelandet bistUnd wenn die Wolken sich zusammenziehenUnd du die Hand nicht mehr vor Augen siehstWenn man dich schon zwingt, Schmuck auszuziehenWo man Brüder zur Begrüßung auf die Wange küsstMerkst du gerade, wo du hier gelandet bist</t>
+          <t>[Verse 1]
+Merkst du, wo du hier gelandet bist?
+Zum ersten Mal siehst du Junkies verwahrlost
+Von Angesicht zu Angesicht
+Ja, im Wannsee bist du gut dran
+Red nicht von Berlin
+Du warst nur auf Klassenfahrt am Kudamm
+Hier gibt es Betonklötze
+Wo über tausend Menschen reinpassen
+Wo sie einen wie dich nicht vorbeilassen
+Du wirst hier nie reinpassen
+Das ist Smog aus der Unterwelt
+Bullen kommen und du hast dich dumm zu stellen
+Hörst du die Hunde bellen?
+Sie suchen Rauschgift
+Kinder wachsen auf zwischen Fußball und Blaulicht
+Zufall? Ich glaub nicht
+Du kannst dir hier nicht mal eine Straße merken
+Weil du mit nem Kuhstall vertraut bist
+Merkst du, wie die Himmeldecke schwarz wird?
+Der Ort, wo ein kleines Mädchen angezündet wurdeUnd im Park stirbt
+Jeder Tag wird anders als bei dir sein
+Doch ich weiß, dass ich in Berlin bleib
+[Hook]
+Und wenn die Wolken sich zusammenziehen
+Und du die Hand nicht mehr vor Augen siehst
+Wenn man dich schon zwingt, Schmuck auszuziehen
+Wo man Brüder zur Begrüßung auf die Wange küsst
+Merkst du gerade, wo du hier gelandet bist
+Und wenn die Wolken sich zusammenziehen
+Und du die Hand nicht mehr vor Augen siehst
+Wenn man dich schon zwingt, Schmuck auszuziehen
+Wo man Brüder zur Begrüßung auf die Wange küsst
+Merkst du gerade, wo du hier gelandet bist
+[Verse 2]
+Merkst du, wo du hier gelandet bist?
+Wo du beim Einkaufen Penner in der Schlange triffst
+Ich würd gern lachen, doch ich kann es nicht, kann es nicht
+Wo deine Hoffnung wie ne Sandburg zusammenbricht
+Scheiß auf die lange Sicht
+Kokain, ich puste goldenen Staub raus
+Guter Guss zwingt deine Fotzen in den Kaufrausch
+Meine Freunde wurden abgeschoben
+Denn meine Freunde haben dich mit Freude abgezogen
+Warum machst du immer noch auf hart
+In der Stadt die niemals schläft?
+Jeder Zweite hat die Höfe aus dem Knast schon gesehen
+Ich schick dich back in deinen Bauernstall
+Und vielleicht findest du in deiner Drecksscheune auch´n Mauerfall
+Für den Touristen die Nutten auf den Standstreifen
+Und wenn die Kohle stimmt, kannst du sie auch anscheißen
+Das ist die Stadt, wo jetzt jeder drüber reden kann
+Wo du nur als Berliner überleben kannst
+[Hook]
+Und wenn die Wolken sich zusammenziehen
+Und du die Hand nicht mehr vor Augen siehst
+Wenn man dich schon zwingt, Schmuck auszuziehen
+Wo man Brüder zur Begrüßung auf die Wange küsst
+Merkst du gerade, wo du hier gelandet bist
+Und wenn die Wolken sich zusammenziehen
+Und du die Hand nicht mehr vor Augen siehst
+Wenn man dich schon zwingt, Schmuck auszuziehen
+Wo man Brüder zur Begrüßung auf die Wange küsst
+Merkst du gerade, wo du hier gelandet bist
+[Verse 3]
+Merkst du, wo du hier gelandet bist?
+Wenn du auf der Straße Jugendbanden triffst
+Platzwunden, wenn dich die Stange trifft
+Für deine rosarote Brille gibt es keinen Platz
+Ich will ne Entschuldigung und scheiß drauf, ob du Zeit hast
+Du bist der nächste tote Mann, der von der Klippe rollt
+Hab ich dir nicht grad gesagt, dass du dich verpissen sollst?
+Das ist kein Szenetreff
+Das ist der Mond, der auf die Stadt scheint
+Von Abgasen siehst du diese Nebel jetzt
+Wir sind die Augen
+Die aus dunklen Gassen schauen
+Der Grund, warum sich Eltern nicht auf die Terrassen trauen
+Es sind die Straßen hier
+Wir sind das Urgestein
+Wenn du mit uns reden solltest, halt dein Abitur geheim
+Ich seh den Angstschweiß
+Weil du wie Dreck stinkst
+Du bist ein Landei, noch dazu ein Crackkind
+Geh mir aus dem Augen
+Ich bin der, der das Berliner Wappen hält
+Herzlich willkommen in der Schattenwelt
+[Hook]
+Und wenn die Wolken sich zusammenziehen
+Und du die Hand nicht mehr vor Augen siehst
+Wenn man dich schon zwingt, Schmuck auszuziehen
+Wo man Brüder zur Begrüßung auf die Wange küsst
+Merkst du gerade, wo du hier gelandet bist
+Und wenn die Wolken sich zusammenziehen
+Und du die Hand nicht mehr vor Augen siehst
+Wenn man dich schon zwingt, Schmuck auszuziehen
+Wo man Brüder zur Begrüßung auf die Wange küsst
+Merkst du gerade, wo du hier gelandet bist</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1079,9 +2076,98 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Part 1]Ich war damals grade dreiAls du mich verlassen hastEs war Mama die es nicht verkraftet hatSie wollte sich scheiden lassen, hör auf zu lügenWie oft wurde sie von dir verprügelt?Wie oft hast du sie grundlos angeschrien?Ihre Arme waren blauDoch sie hörte niemals auf ihren Mann zu liebenVielleicht war es wegen mirSie ist stark gebliebenNur damit ich meinen Vater nicht verlierUnd ich wusste nicht was los istIch hab mich sogar mal gefragt ob du tot bistWieso traf es bloß mich?Ich war im KindergartenAber bist du mal gekommen um mich abzuholen?Nein du hast dein Kind verratenDu hast an mich gedacht?Warum kann dir nicht glaubenFalls du es schaffst dann schau mir in die AugenDu hast mich im Stich gelassenIch guck die Bilder an und fang an dein Gesicht zu hassen[Hook]Reich mir nicht deine HandIch würd' sie nie wieder nehmenIch will dich nie wieder sehenBitte komm jetzt nicht anUnd sag ich muss dich verstehenEs ist Schluss mit den TränenReich mir nicht deine HandDu hast mich so sehr enttäuschtDu hast diesen Sohn doch gezeugtBitte komm jetzt nicht anDu brauchst mir nichts zu erzählenMama sagte du wolltest gehen
-[Part 2]Dann kam meine EinschulungMein erster Schultag alleinUnd der erste Tag im FußballvereinAber dich hat es nicht interessiertIch weiß bis heute nicht den GrundVater du verleugnest deinen JungenIch möchte dir nichts beibringenUnd ich nenne dich nicht Feigling aberWegen dir war ich ein HeimkindSogar die Kerzen auf der Torte brannten ohne dichDu bist ein Lügner wenn du sagst dass du dein Sohn vermisstIch war gerade 5Und schon alleine auf dem SpielplatzWo war dieser Vater der mich lieb hat?Wie kann man sein Kind so verachten?Ja du bist mein Vater, aber bestimmt nich' erwachsenSo oft gedealtIch hab so oft geklautMama hat sich nicht getrautIhren Sohn zu verhauenUnd ich sag es dir nicht gernAber du hast mir gefehltDu hast von meiner Jugend nichts erlebt[Hook]Reich mir nicht deine HandIch würd' sie nie wieder nehmenIch will dich nie wieder sehenBitte komm jetzt nicht anUnd sag ich muss dich verstehenEs ist Schluss mit den TränenReich mir nicht deine HandDu hast mich so sehr enttäuschtDu hast diesen Sohn doch gezeugtBitte komm jetzt nicht anDu brauchst mir nichts zu erzählenMama sagte du wolltest gehen
-[Part 3]Das erste mal gesehen hab ich dich zu spätIch war 26 Jahre alt, okayDu warst nicht der Vater den ich mir erhofft habeDeine scheiß Adresse fand ich auf 'ner PostkarteUnd ich habe dich in Düsseldorf gesuchtIn Düsseldorf gefunden und Düsseldorf verfluchtIch saß in deiner Wohnung drinIch hab dich angeseh'nDu hast mir Leid getanHör auf mich anzuflehenDu hast gesagt Mama hätte sich von dir getrenntWenn du besoffen warst warst du wie ein fremder MenschUnd es tut dir ganz bestimmt nicht LeidHeute sag ich dir, es war für dein Kind nicht leichtUnd ich wünsche dir nichts schlechtesEinfach aus dem Grund ,weil kein Mensch auf Gottes Erden hier perfekt istIch bin erwachsen ich kann mich jetzt um Mama sorgenSie sind verschwunden, ich meine Mamas Sorgen[Hook]Reich mir nicht deine HandIch würd' sie nie wieder nehmenIch will dich nie wieder sehenBitte komm jetzt nicht anUnd sag ich muss dich verstehenEs ist Schluss mit den TränenReich mir nicht deine HandDu hast mich so sehr enttäuschtDu hast diesen Sohn doch gezeugtBitte komm jetzt nicht anDu brauchst mir nichts zu erzählenMama sagte du wolltest gehen</t>
+          <t>[Part 1]
+Ich war damals grade drei
+Als du mich verlassen hast
+Es war Mama die es nicht verkraftet hat
+Sie wollte sich scheiden lassen, hör auf zu lügenWie oft wurde sie von dir verprügelt?Wie oft hast du sie grundlos angeschrien?Ihre Arme waren blauDoch sie hörte niemals auf ihren Mann zu liebenVielleicht war es wegen mirSie ist stark gebliebenNur damit ich meinen Vater nicht verlierUndich wusste nicht was los ist
+Ich hab mich sogar mal gefragt ob du tot bist
+Wieso traf es bloß mich?
+Ich war im Kindergarten
+Aber bist du mal gekommen um mich abzuholen?
+Nein du hast dein Kind verraten
+Du hast an mich gedacht?
+Warum kann dir nicht glauben
+Falls du es schaffst dann schau mir in die Augen
+Du hast mich im Stich gelassen
+Ich guck die Bilder an und fang an dein Gesicht zu hassen
+[Hook]
+Reich mir nicht deine Hand
+Ich würd' sie nie wieder nehmen
+Ich will dich nie wieder sehen
+Bitte komm jetzt nicht an
+Und sag ich muss dich verstehen
+Es ist Schluss mit den Tränen
+Reich mir nicht deine Hand
+Du hast mich so sehr enttäuscht
+Du hast diesen Sohn doch gezeugt
+Bitte komm jetzt nicht an
+Du brauchst mir nichts zu erzählen
+Mama sagte du wolltest gehen
+[Part 2]
+Dann kam meine Einschulung
+Mein erster Schultag allein
+Und der erste Tag im Fußballverein
+Aber dich hat es nicht interessiert
+Ich weiß bis heute nicht den Grund
+Vater du verleugnest deinen Jungen
+Ich möchte dir nichts beibringen
+Und ich nenne dich nicht Feigling aber
+Wegen dir war ich ein Heimkind
+Sogar die Kerzen auf der Torte brannten ohne dich
+Du bist ein Lügner wenn du sagst dass du dein Sohn vermisst
+Ich war gerade 5
+Und schon alleine auf dem Spielplatz
+Wo war dieser Vater der mich lieb hat?
+Wie kann man sein Kind so verachten?
+Ja du bist mein Vater, aber bestimmt nich' erwachsen
+So oft gedealtIch hab so oft geklautMama hat sich nicht getrautIhren Sohn zu verhauen
+Und ich sag es dir nicht gern
+Aber du hast mir gefehlt
+Du hast von meiner Jugend nichts erlebt
+[Hook]
+Reich mir nicht deine Hand
+Ich würd' sie nie wieder nehmen
+Ich will dich nie wieder sehen
+Bitte komm jetzt nicht an
+Und sag ich muss dich verstehen
+Es ist Schluss mit den Tränen
+Reich mir nicht deine Hand
+Du hast mich so sehr enttäuscht
+Du hast diesen Sohn doch gezeugt
+Bitte komm jetzt nicht an
+Du brauchst mir nichts zu erzählen
+Mama sagte du wolltest gehen
+[Part 3]
+Das erste mal gesehen hab ich dich zu spät
+Ich war 26 Jahre alt, okay
+Du warst nicht der Vater den ich mir erhofft habeDeine scheiß Adresse fand ich auf 'ner Postkarte
+Und ich habe dich in Düsseldorf gesucht
+In Düsseldorf gefunden und Düsseldorf verflucht
+Ich saß in deiner Wohnung drin
+Ich hab dich angeseh'n
+Du hast mir Leid getan
+Hör auf mich anzuflehen
+Du hast gesagt Mama hätte sich von dir getrennt
+Wenn du besoffen warst warst du wie ein fremder Mensch
+Und es tut dir ganz bestimmt nicht Leid
+Heute sag ich dir, es war für dein Kind nicht leicht
+Und ich wünsche dir nichts schlechtes
+Einfach aus dem Grund ,weil kein Mensch auf Gottes Erden hier perfekt ist
+Ich bin erwachsen ich kann mich jetzt um Mama sorgenSie sind verschwunden, ich meine Mamas Sorgen
+[Hook]
+Reich mir nicht deine Hand
+Ich würd' sie nie wieder nehmen
+Ich will dich nie wieder sehen
+Bitte komm jetzt nicht an
+Und sag ich muss dich verstehen
+Es ist Schluss mit den Tränen
+Reich mir nicht deine Hand
+Du hast mich so sehr enttäuscht
+Du hast diesen Sohn doch gezeugt
+Bitte komm jetzt nicht an
+Du brauchst mir nichts zu erzählen
+Mama sagte du wolltest gehen</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1135,9 +2221,80 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[Songtext zu „Asylantenstatus“ ft. Summer Cem][Hook: Summer Cem]Ich bin ein Mann mit Status, der AsylantenstatusDu hast den Schwanz im Anus, das ist Summer CemEr macht am Tag 'ne Mille, Dolce-Gabbana-BrilleDas ist ein harter Pimmel, das ist Sonny BlackWir ficken eurer Leben, als würd es Feuer regnenKommen in eure Gegend, das wird asozialOh, ach, du große Scheiße, jetzt steigen DrogenpreiseDu Idiot bist pleite, das ist unser Job[Verse 1: Summer Cem]:Mach dem 7er Platz da, du bist der KasperTrage nur mein La Martina, du BastardSummer, der König der Türken, ich komm (bomb)Ich liebe den kalten BetonKomm, egal, wann du kommst, egal, wo du wohnstDie Navigation zeigt mir das Dorf, wo du wohnst, MannIch komme zu dir, Mann, und werfe dich von dem BalkonScheiß der Hund auf die Punchlines, Mund auf, Schwanz reinUnd du denkst, wie kann ein Mensch von Grund auf so krank sein?Doch, hey, das ist meine Art, das Leben ist schweinehartUnd du holst jetzt am besten deinen Schädel aus meinem ArschDu bist ein Schauspiel-KanackeDeine Mutter hat mehr mit Schwänzen zu tun als eine HauptschülerklasseMit der Handfeuerwaffe wie ein Vollprofi killt, dieser TürkeSchmeißt euch Würstchen auf den HolzkohlegrillDas ist mein Stolz in seiner ganzen PrachtIch wollt es und ich hab's gemachtDanke, Sonny, ich hab Gold in meine Stadt gebrachtLippen auf den Penis, Pisser, hey, hier kommt der BabysitterIch scheiß auf dich und den britischen PremierministerRheydt-West, du denkst, du bist in der Gegend sicherZwischen all den abgefuckten Junkies und den EselfickernMach es für Geld, du KlappergestellIch weiß, du findest Summer scheiße, aber deiner Mama gefällt's, yeah
-[Hook: Summer Cem]Ich bin ein Mann mit Status, der AsylantenstatusDu hast den Schwanz im Anus, das ist Summer CemEr macht am Tag 'ne Mille, Dolce-Gabbana-BrilleDas ist ein harter Pimmel, das ist Sonny BlackWir ficken eurer Leben, als würd es Feuer regnenKommen in eure Gegend, das wird asozialOh, ach, du große Scheiße, jetzt steigen DrogenpreiseDu Idiot bist pleite, das ist unser Job[Verse 2: Bushido]:Junge, ich schlag dich einfach aus PrinzipIch bleib der Gangster der jetzt Lust bekommt, paar Lines auf dem Körper deiner Frau zu ziehenSag, wer ist asozial? Du bleibst nur ein MärchenprinzEingesperrt in Linz, denn ich bleib in Sachen Ärger KingIch provozier nur dich, guck, du provozierst nur michIch provozier jetzt nicht, meine Jungs sind fokussiert auf dichDein ganzes Label wird so was von in den Arsch geficktNenn mir weiter eure ganzen Rapper, doch es sagt mir nichtsMeine Jungs sind unaufhaltbar, ich hab aufgerüstetGhettolife, Ghetto heißt Platzwunde durch SchraubenschlüsselDu brauchst nicht dumm zu glotzen und mit den Schultern zuckenDu bist ein G? Dann geh doch mal 'nen Bullen bespucken!King of Kingz, maskulin, du kennst mich nichtScheiß aufs Bizz, scheiß auf dich, was int'ressiert sind Cem und ichUnd mir wird jetzt bewusst, dass du nur ein Bastard bleibstDas ist Schöneberg, Tempelhof, Mönchengladbach-RheydtHier gibt es keine Limits, fick dich, deine Jungs sind peinlichGib mir dein Geld, gib dein Schmuck, wir werden uns schon einigDas hier sind gute Jungs, ja und wir sind streitbereitKokain als Zeitvertreib, dann im Eigenheim, yeah
-[Hook: Summer Cem]Ich bin ein Mann mit Status, der AsylantenstatusDu hast den Schwanz im Anus, das ist Summer CemEr macht am Tag 'ne Mille, Dolce-Gabbana-BrilleDas ist ein harter Pimmel, das ist Sonny BlackWir ficken eurer Leben, als würd es Feuer regnenKommen in eure Gegend, das wird asozialOh, ach, du große Scheiße, jetzt steigen DrogenpreiseDu Idiot bist pleite, das ist unser Job</t>
+          <t>[Songtext zu „Asylantenstatus“ ft. Summer Cem]
+[Hook: Summer Cem]
+Ich bin ein Mann mit Status, der Asylantenstatus
+Du hast den Schwanz im Anus, das ist Summer Cem
+Er macht am Tag 'ne Mille, Dolce-Gabbana-Brille
+Das ist ein harter Pimmel, das ist Sonny Black
+Wir ficken eurer Leben, als würd es Feuer regnen
+Kommen in eure Gegend, das wird asozial
+Oh, ach, du große Scheiße, jetzt steigen Drogenpreise
+Du Idiot bist pleite, das ist unser Job
+[Verse 1: Summer Cem]:
+Mach dem 7er Platz da, du bist der Kasper
+Trage nur mein La Martina, du Bastard
+Summer, der König der Türken, ich komm (bomb)
+Ich liebe den kalten Beton
+Komm, egal, wann du kommst, egal, wo du wohnst
+Die Navigation zeigt mir das Dorf, wo du wohnst, Mann
+Ich komme zu dir, Mann, und werfe dich von dem Balkon
+Scheiß der Hund auf die Punchlines, Mund auf, Schwanz rein
+Und du denkst, wie kann ein Mensch von Grund auf so krank sein?
+Doch, hey, das ist meine Art, das Leben ist schweinehart
+Und du holst jetzt am besten deinen Schädel aus meinem Arsch
+Du bist ein Schauspiel-Kanacke
+Deine Mutter hat mehr mit Schwänzen zu tun als eine Hauptschülerklasse
+Mit der Handfeuerwaffe wie ein Vollprofi killt, dieser Türke
+Schmeißt euch Würstchen auf den Holzkohlegrill
+Das ist mein Stolz in seiner ganzen Pracht
+Ich wollt es und ich hab's gemacht
+Danke, Sonny, ich hab Gold in meine Stadt gebracht
+Lippen auf den Penis, Pisser, hey, hier kommt der Babysitter
+Ich scheiß auf dich und den britischen Premierminister
+Rheydt-West, du denkst, du bist in der Gegend sicher
+Zwischen all den abgefuckten Junkies und den Eselfickern
+Mach es für Geld, du Klappergestell
+Ich weiß, du findest Summer scheiße, aber deiner Mama gefällt's, yeah
+[Hook: Summer Cem]
+Ich bin ein Mann mit Status, der Asylantenstatus
+Du hast den Schwanz im Anus, das ist Summer Cem
+Er macht am Tag 'ne Mille, Dolce-Gabbana-Brille
+Das ist ein harter Pimmel, das ist Sonny Black
+Wir ficken eurer Leben, als würd es Feuer regnen
+Kommen in eure Gegend, das wird asozial
+Oh, ach, du große Scheiße, jetzt steigen Drogenpreise
+Du Idiot bist pleite, das ist unser Job
+[Verse 2: Bushido]:
+Junge, ich schlag dich einfach aus Prinzip
+Ich bleib der Gangster der jetzt Lust bekommt, paar Lines auf dem Körper deiner Frau zu ziehen
+Sag, wer ist asozial? Du bleibst nur ein Märchenprinz
+Eingesperrt in Linz, denn ich bleib in Sachen Ärger King
+Ich provozier nur dich, guck, du provozierst nur mich
+Ich provozier jetzt nicht, meine Jungs sind fokussiert auf dich
+Dein ganzes Label wird so was von in den Arsch gefickt
+Nenn mir weiter eure ganzen Rapper, doch es sagt mir nichts
+Meine Jungs sind unaufhaltbar, ich hab aufgerüstet
+Ghettolife, Ghetto heißt Platzwunde durch Schraubenschlüssel
+Du brauchst nicht dumm zu glotzen und mit den Schultern zucken
+Du bist ein G? Dann geh doch mal 'nen Bullen bespucken!
+King of Kingz, maskulin, du kennst mich nicht
+Scheiß aufs Bizz, scheiß auf dich, was int'ressiert sind Cem und ich
+Und mir wird jetzt bewusst, dass du nur ein Bastard bleibst
+Das ist Schöneberg, Tempelhof, Mönchengladbach-Rheydt
+Hier gibt es keine Limits, fick dich, deine Jungs sind peinlich
+Gib mir dein Geld, gib dein Schmuck, wir werden uns schon einig
+Das hier sind gute Jungs, ja und wir sind streitbereit
+Kokain als Zeitvertreib, dann im Eigenheim, yeah
+[Hook: Summer Cem]
+Ich bin ein Mann mit Status, der Asylantenstatus
+Du hast den Schwanz im Anus, das ist Summer Cem
+Er macht am Tag 'ne Mille, Dolce-Gabbana-Brille
+Das ist ein harter Pimmel, das ist Sonny Black
+Wir ficken eurer Leben, als würd es Feuer regnen
+Kommen in eure Gegend, das wird asozial
+Oh, ach, du große Scheiße, jetzt steigen Drogenpreise
+Du Idiot bist pleite, das ist unser Job</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1191,8 +2348,72 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[Strophe I: Bushido]:Du denkst dein Leben könnte eigentlich nicht schlimmer laufenUnd in dir drin ist ein riesengroßer TrümmerhaufenUnd jedes Mal wenn etwas schönes passiert tut es dir wehWeil du es womöglich verlierstDu würdest gerne in die Zukunft blickenDu fühlst dich alt und deswegen bist du gar nicht so wie all die anderen JugendlichenGuck mal ein Aussenseiter, nur weil sie Schwarz liebtIhr Lehrer sagt dass man in ihr nen Psychopat siehtUnd auch die andern Mädchen schicken sie wegDass ist der Grund warum sie sich vor den Blicken verstecktUnd sie würde gerne lachen, doch wie soll sie lachen wenn sie jeden TagAlleine in der Klasse hocktUnd so geschminkt als ob sie eine Tote wärUnd für ein kleines bisschen Spaß halten die Drogen herSie will so gerne raus, sie wär so gerne StaubUnd deswegen blickt sie zu den Sternen raufHook:Das Leben ist wie ein RegenbogenFür kurze Zeit ist alles schönDoch leider wird dich immer dieser Regen holenDenn dieser Regen, der die Sonne am verdrängen istZeigt dass alles Schöne nur vergänglich istDas Leben ist so wie ein RegenbogenFür kurze Zeit ist alles schönDoch leider wird dich immer dieser Regen holenDenn dieser Regen, der die Sonne am verdrängen istZeigt dass alles Schöne nur vergänglich ist
-[Strophe II: Bushido]:Du ziehst die Decke über deinen KopfDenn deine Eltern streiten sich, es is soweitSie scheiden sichSchon wieder hörst du deine Mutter in der Küche weinenUnd schon seit langem frisst du diese Scheiße in dich reinSie wollten dir Mut machen, es wär nicht entgültig vorbeiNur ne räumliche Trennung für ne ZeitDoch er glaubte seinen Eltern nichtEr war kein kleines Kind, doch für das was er fühlte waren beide blindEr ging daran kaputt, also lief er von zu hause wegSein ganzes Leben war ein Haufen DreckUnd dieses Leben war ihm nichts wertJa dieses Leben war zwar alles aber nicht fairDieser Junge fühlte sich allein gelassenEr wollte nie wieder zurückWeil er das Gefühl bekam dass ihn beiden hassenEr stellt die Frage: Warum ist alles so gelaufen?Und ertränkte seine Depressionen im Koma saufenHook:[Strophe III: Bushido]:Ja ich hör dich in der Dusche weinenUnd nicht mal der laute Schrei wird dich jemals von dieser tiefen Wut befreienDu machst dir Vorwürfe, du hast dass alles nur für ihn getanUm sein scheiß Heroin zu zahlenEs wurde immer mehr, und auch die Schulden kamenEr gehörte nicht zu diesen Männern die geduldig warenUnd was er dann verlangte konnte sie nicht verstehenEr zwang sie nur für seine Sucht auf den Strich zu gehenJa sie hat es mitgemachtSie kam jede Nacht nach HauseHat gezittert, geweint ihr Gesicht war blassIhre Wunden werden nie wieder heilenNie wieder hat sie ihm verziehen, diesem SchweinSie hört Stimmen wenn sie schläftSie ist am durchdrehenSie guckt in den Spiegel und kann selbst durch sich durch sehenWo ist ihre Lust am Leben?Heute ist ein guter Tag, um sich den Goldenen Schuss zu geben
+          <t>[Strophe I: Bushido]:
+Du denkst dein Leben könnte eigentlich nicht schlimmer laufen
+Und in dir drin ist ein riesengroßer Trümmerhaufen
+Und jedes Mal wenn etwas schönes passiert tut es dir weh
+Weil du es womöglich verlierst
+Du würdest gerne in die Zukunft blicken
+Du fühlst dich alt und deswegen bist du gar nicht so wie all die anderen Jugendlichen
+Guck mal ein Aussenseiter, nur weil sie Schwarz liebt
+Ihr Lehrer sagt dass man in ihr nen Psychopat sieht
+Und auch die andern Mädchen schicken sie weg
+Dass ist der Grund warum sie sich vor den Blicken versteckt
+Und sie würde gerne lachen, doch wie soll sie lachen wenn sie jeden Tag
+Alleine in der Klasse hockt
+Und so geschminkt als ob sie eine Tote wär
+Und für ein kleines bisschen Spaß halten die Drogen her
+Sie will so gerne raus, sie wär so gerne Staub
+Und deswegen blickt sie zu den Sternen rauf
+Hook:
+Das Leben ist wie ein Regenbogen
+Für kurze Zeit ist alles schön
+Doch leider wird dich immer dieser Regen holen
+Denn dieser Regen, der die Sonne am verdrängen ist
+Zeigt dass alles Schöne nur vergänglich ist
+Das Leben ist so wie ein Regenbogen
+Für kurze Zeit ist alles schön
+Doch leider wird dich immer dieser Regen holen
+Denn dieser Regen, der die Sonne am verdrängen ist
+Zeigt dass alles Schöne nur vergänglich ist
+[Strophe II: Bushido]:
+Du ziehst die Decke über deinen Kopf
+Denn deine Eltern streiten sich, es is soweit
+Sie scheiden sich
+Schon wieder hörst du deine Mutter in der Küche weinen
+Und schon seit langem frisst du diese Scheiße in dich rein
+Sie wollten dir Mut machen, es wär nicht entgültig vorbei
+Nur ne räumliche Trennung für ne Zeit
+Doch er glaubte seinen Eltern nicht
+Er war kein kleines Kind, doch für das was er fühlte waren beide blind
+Er ging daran kaputt, also lief er von zu hause weg
+Sein ganzes Leben war ein Haufen Dreck
+Und dieses Leben war ihm nichts wert
+Ja dieses Leben war zwar alles aber nicht fair
+Dieser Junge fühlte sich allein gelassen
+Er wollte nie wieder zurück
+Weil er das Gefühl bekam dass ihn beiden hassen
+Er stellt die Frage: Warum ist alles so gelaufen?
+Und ertränkte seine Depressionen im Koma saufen
+Hook:
+[Strophe III: Bushido]:
+Ja ich hör dich in der Dusche weinen
+Und nicht mal der laute Schrei wird dich jemals von dieser tiefen Wut befreien
+Du machst dir Vorwürfe, du hast dass alles nur für ihn getan
+Um sein scheiß Heroin zu zahlen
+Es wurde immer mehr, und auch die Schulden kamen
+Er gehörte nicht zu diesen Männern die geduldig waren
+Und was er dann verlangte konnte sie nicht verstehen
+Er zwang sie nur für seine Sucht auf den Strich zu gehen
+Ja sie hat es mitgemacht
+Sie kam jede Nacht nach Hause
+Hat gezittert, geweint ihr Gesicht war blass
+Ihre Wunden werden nie wieder heilen
+Nie wieder hat sie ihm verziehen, diesem Schwein
+Sie hört Stimmen wenn sie schläft
+Sie ist am durchdrehen
+Sie guckt in den Spiegel und kann selbst durch sich durch sehen
+Wo ist ihre Lust am Leben?Heute ist ein guter Tag, um sich den Goldenen Schuss zu geben
 Hook:</t>
         </is>
       </c>
@@ -1247,8 +2468,72 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[Strophe I: Bushido]:Ich bin zurück dieser Dealer vom BlockIhr könnt die Scheiße kostenIch hab mich für das Album 7 Tage eingeschlossenUnd jetzt wird Deutschrap gefickt von dem Besten hierIch scheiß auf jeden und werd keinen von euch respektierenRespektiere deinen Zeuger also guck mich anDu wolltest Beef und ich halt dich in nem Bus gefangenDu willst von Erfolg sprechenIch lasse 6mal Gold sprechenDass alleine wird deinen Stolz brechenWo sind die Stars denn jetztDeine DreckscelebretiesIch spuck auf jeden und zieh immer noch das EcstasyDer Beat is Gangsta, Fresse ich bin schlecht gelauntDie Rapper haben sich am meinem Penis festgesaugtSamy geht in Rente wegen der VerkaufszahlenWas mit dem Rest passiert könnt ihr euch ja ausmalenIch bin der Inbegriff für harten Rap du weißt schonWovon ich gerade Spreche keiner steigt auf meinen ThronHook (2x):Ihr habt viel zu lange drauf gewartetDoch ich bin zurück und ich erlaub euch wieder auszuatmenIch bin backDas ganze Land hat drauf gewartetIhr seit jetzt schon außer AtemWer ich binKingbushido, Sonny Black
-[Strope II: Bushido]:Ich hab die ganze Scheiße mitverfolgtIhr tauscht die Baggy für PicaldiRedet Slang sorry doch ich nehm euch nich für vollIch scheiß auf deutschen Rap, komplett und das mein ich auchIhr kennt mein Leben bloß weil es mir die Zeitung klautKomm noch ein kleines Stück näher, ich such das GesprächIch hab ein Foto von Osama in den Pass geklebtUnd jetzt wird scharf geschossen, du hast keinen funken StolzDeine Eltern haben gelogen du warst ungewolltHol deine krassen Freunde hol mir deine krasse GangIch bin ein Wasserfan deshalb wirst du im Fass ertränktSonny skrupellos ja ich ich war als erster daIch geh direkt in dein Gehirn rein wie NervengasWer ist der Volksheld der deine Freunde krass besiegtBind dir zwei Torpedos an die Füße es ist Apres SkiJetzt wird dein Arm gebrochen und du kannst nix dagegen tunFür mich bleibt ihr Wichser eben SchwulHook (2x):[Strophe III: Bushido]Carlo Colucci ich trag immer noch Berliner StyleUnd das Gesock ich ergreife jetzt für sie ParteiIch seh dein Dorf und begreife das es nie so wirdNie so wird das ist Trainingshose und BushidoshirtKeine Lust auf UnterhaltungDas hier ist der Sound der StrasseDas hier ist das einmal im Jahrhundert AlbumIch mach dem ganzen Land jetzt endlich klar was Rap bedeutetFür was soll ich mich schämen ich werde nie den Dreck verleugnenIch fick dein Missgeburtentreff du bist hier nix WertAlbum Nr.7 jeder wartet auf die WiederkehrIch bin böser als zuvor bist du dem Hass gewachsenScheiß egal ob sie jetzt bald diesen Mann verhaftenIch komm auf die Bühne JungeSag mir siehst du diese MenschenmassenKriminelle die euch reiche Menschen hassenUnd ich sage euch jetzt eins und ihr könnt mir glaubenDieses Album öffnet euch die Augen
+          <t>[Strophe I: Bushido]:
+Ich bin zurück dieser Dealer vom Block
+Ihr könnt die Scheiße kosten
+Ich hab mich für das Album 7 Tage eingeschlossen
+Und jetzt wird Deutschrap gefickt von dem Besten hier
+Ich scheiß auf jeden und werd keinen von euch respektieren
+Respektiere deinen Zeuger also guck mich an
+Du wolltest Beef und ich halt dich in nem Bus gefangen
+Du willst von Erfolg sprechen
+Ich lasse 6mal Gold sprechen
+Dass alleine wird deinen Stolz brechen
+Wo sind die Stars denn jetzt
+Deine Dreckscelebreties
+Ich spuck auf jeden und zieh immer noch das Ecstasy
+Der Beat is Gangsta, Fresse ich bin schlecht gelaunt
+Die Rapper haben sich am meinem Penis festgesaugt
+Samy geht in Rente wegen der Verkaufszahlen
+Was mit dem Rest passiert könnt ihr euch ja ausmalen
+Ich bin der Inbegriff für harten Rap du weißt schon
+Wovon ich gerade Spreche keiner steigt auf meinen Thron
+Hook (2x):
+Ihr habt viel zu lange drauf gewartet
+Doch ich bin zurück und ich erlaub euch wieder auszuatmen
+Ich bin back
+Das ganze Land hat drauf gewartet
+Ihr seit jetzt schon außer Atem
+Wer ich bin
+Kingbushido, Sonny Black
+[Strope II: Bushido]:
+Ich hab die ganze Scheiße mitverfolgt
+Ihr tauscht die Baggy für Picaldi
+Redet Slang sorry doch ich nehm euch nich für voll
+Ich scheiß auf deutschen Rap, komplett und das mein ich auch
+Ihr kennt mein Leben bloß weil es mir die Zeitung klaut
+Komm noch ein kleines Stück näher, ich such das Gespräch
+Ich hab ein Foto von Osama in den Pass geklebt
+Und jetzt wird scharf geschossen, du hast keinen funken Stolz
+Deine Eltern haben gelogen du warst ungewollt
+Hol deine krassen Freunde hol mir deine krasse Gang
+Ich bin ein Wasserfan deshalb wirst du im Fass ertränkt
+Sonny skrupellos ja ich ich war als erster da
+Ich geh direkt in dein Gehirn rein wie Nervengas
+Wer ist der Volksheld der deine Freunde krass besiegt
+Bind dir zwei Torpedos an die Füße es ist Apres Ski
+Jetzt wird dein Arm gebrochen und du kannst nix dagegen tun
+Für mich bleibt ihr Wichser eben Schwul
+Hook (2x):
+[Strophe III: Bushido]
+Carlo Colucci ich trag immer noch Berliner Style
+Und das Gesock ich ergreife jetzt für sie Partei
+Ich seh dein Dorf und begreife das es nie so wird
+Nie so wird das ist Trainingshose und Bushidoshirt
+Keine Lust auf Unterhaltung
+Das hier ist der Sound der Strasse
+Das hier ist das einmal im Jahrhundert Album
+Ich mach dem ganzen Land jetzt endlich klar was Rap bedeutet
+Für was soll ich mich schämen ich werde nie den Dreck verleugnen
+Ich fick dein Missgeburtentreff du bist hier nix Wert
+Album Nr.7 jeder wartet auf die Wiederkehr
+Ich bin böser als zuvor bist du dem Hass gewachsen
+Scheiß egal ob sie jetzt bald diesen Mann verhaften
+Ich komm auf die Bühne Junge
+Sag mir siehst du diese Menschenmassen
+Kriminelle die euch reiche Menschen hassen
+Und ich sage euch jetzt eins und ihr könnt mir glauben
+Dieses Album öffnet euch die Augen
 Hook (2x):</t>
         </is>
       </c>
@@ -1303,10 +2588,85 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Strophe I: Bushido]:Er kommt nach Hause und findet diesen BriefDer Gerichtsvollzieher brachte den TerminSeine Kinder sind am lächeln doch er wirkt wie versteinertWeil er nur drei Wochen Zeit hatSeine Frau ist in der Küche und sie spültEr dreht die Heizung runter und die Zimmer werden kühlEr hat Angst seiner Frau etwas zu sagenEr nimmt erstmal die Kinder und legt sie beide schlafenEr zieht seinen Mantel anGeht vor die Tür doch weiß grade nichts mit sich anzufangenZehn Jahre geschuftet wie ein SchweinMit Nebenjobs seine Frau wusste nicht BescheidWie soll er seinem Chef nur erklärenDas er mehr Geld braucht um den Rest zu ernährenUnd er läuft jetzt zurück sein Haupt ist gesenktEr versucht den Scheiß zu verdrängenHook:Jeder Tag gleicht einem KampfDen man verwundet überstehtNach außen zeigt man keinen SchmerzNiemand soll die Wahrheit sehnUnd jede Stunde die man lebtMuss man weiter aufrecht gehenEgal wie tief die Wunden sindNiemand soll die Wahrheit sehn
-[Strophe II: Bushido]:Am nächsten Morgen klingelt dann das TelefonEs ist der Chef jetzt komm ihn die Probleme holenEr wird gefeuert, die Firma ist bankrottVerzweifelt fast er sich an seinen KopfKennst du das Gefühl wenn einem nichts- außer seiner Würde bleibtWillkommen in der WirklichkeitSein stolz zerbricht, seine Augen werden wässrigSeine Frau merkt was ihn beschäftigtEr sagt es wird nie wieder normalSag wie sollen sie die Miete bezahlenUnd die Familie hier muss raus er blickt jetzt in die Augen seiner KinderWenn sie nur wüssten es wird noch ums' tausendfache schlimmerEr hat sich das nicht ausgesucht dieser Mann der so stark warEin Ehrenmann ein aufrechter VaterEr schämte sich so sehr, sodass er keinem was erzählt hatWeil ihn das Problem so gequält hatHook:Jeder Tag gleicht einem KampfDen man verwundet überstehtNach außen zeigt man keinen SchmerzNiemand soll die Wahrheit sehnUnd jede Stunde die man lebtMuss man weiter aufrecht gehenEgal wie tief die Wunden sindNiemand soll die Wahrheit sehn
-[Strope III: Bushido]:Sein leben geht den Bach runter was für ein TrauerspielWie ein kleines Kind das von einer Mauer fielEr hatte nichts mehr dieses Leben war ihm nichts wertUnd er gab auch sein Gesicht herEine Frau die ihn zu Hause jetzt hasstEr ertränkte seine Trauer in SchnapsEr verzockte die ErsparnisseNahm sogar Geld bei seiner Tochter aus der SparbüchseWas soll man tun wenn das Geld nicht reichtIn der Spielothek sitzt voller SelbstmitleidUnd sein Leben zog vorbei sein Inneres zerbrachEin blinder Mann auf erden der den Himmel nicht mehr sahEr erinnert sich zurückAn die Liebe und sein GlückEr schließt die Augen denn er weiß was er verloren hatSchluckt es einfach runter damit er keine Sorgen hatHook:Jeder Tag gleicht einem KampfDen man verwundet überstehtNach außen zeigt man keinen SchmerzNiemand soll die Wahrheit sehnUnd jede Stunde die man lebtMuss man weiter aufrecht gehenEgal wie tief die Wunden sindNiemand soll die Wahrheit sehn</t>
+          <t>[Strophe I: Bushido]:
+Er kommt nach Hause und findet diesen Brief
+Der Gerichtsvollzieher brachte den Termin
+Seine Kinder sind am lächeln doch er wirkt wie versteinert
+Weil er nur drei Wochen Zeit hat
+Seine Frau ist in der Küche und sie spült
+Er dreht die Heizung runter und die Zimmer werden kühl
+Er hat Angst seiner Frau etwas zu sagen
+Er nimmt erstmal die Kinder und legt sie beide schlafen
+Er zieht seinen Mantel an
+Geht vor die Tür doch weiß grade nichts mit sich anzufangen
+Zehn Jahre geschuftet wie ein Schwein
+Mit Nebenjobs seine Frau wusste nicht Bescheid
+Wie soll er seinem Chef nur erklären
+Das er mehr Geld braucht um den Rest zu ernähren
+Und er läuft jetzt zurück sein Haupt ist gesenkt
+Er versucht den Scheiß zu verdrängen
+Hook:
+Jeder Tag gleicht einem Kampf
+Den man verwundet übersteht
+Nach außen zeigt man keinen Schmerz
+Niemand soll die Wahrheit sehn
+Und jede Stunde die man lebt
+Muss man weiter aufrecht gehen
+Egal wie tief die Wunden sind
+Niemand soll die Wahrheit sehn
+[Strophe II: Bushido]:
+Am nächsten Morgen klingelt dann das Telefon
+Es ist der Chef jetzt komm ihn die Probleme holen
+Er wird gefeuert, die Firma ist bankrott
+Verzweifelt fast er sich an seinen Kopf
+Kennst du das Gefühl wenn einem nichts+ außer seiner Würde bleibt
+Willkommen in der Wirklichkeit
+Sein stolz zerbricht, seine Augen werden wässrig
+Seine Frau merkt was ihn beschäftigt
+Er sagt es wird nie wieder normal
+Sag wie sollen sie die Miete bezahlen
+Und die Familie hier muss raus er blickt jetzt in die Augen seiner Kinder
+Wenn sie nur wüssten es wird noch ums' tausendfache schlimmer
+Er hat sich das nicht ausgesucht dieser Mann der so stark war
+Ein Ehrenmann ein aufrechter Vater
+Er schämte sich so sehr, sodass er keinem was erzählt hat
+Weil ihn das Problem so gequält hat
+Hook:
+Jeder Tag gleicht einem Kampf
+Den man verwundet übersteht
+Nach außen zeigt man keinen Schmerz
+Niemand soll die Wahrheit sehn
+Und jede Stunde die man lebt
+Muss man weiter aufrecht gehen
+Egal wie tief die Wunden sind
+Niemand soll die Wahrheit sehn
+[Strope III: Bushido]:
+Sein leben geht den Bach runter was für ein Trauerspiel
+Wie ein kleines Kind das von einer Mauer fiel
+Er hatte nichts mehr dieses Leben war ihm nichts wert
+Und er gab auch sein Gesicht her
+Eine Frau die ihn zu Hause jetzt hasst
+Er ertränkte seine Trauer in Schnaps
+Er verzockte die Ersparnisse
+Nahm sogar Geld bei seiner Tochter aus der Sparbüchse
+Was soll man tun wenn das Geld nicht reicht
+In der Spielothek sitzt voller Selbstmitleid
+Und sein Leben zog vorbei sein Inneres zerbrach
+Ein blinder Mann auf erden der den Himmel nicht mehr sah
+Er erinnert sich zurück
+An die Liebe und sein Glück
+Er schließt die Augen denn er weiß was er verloren hat
+Schluckt es einfach runter damit er keine Sorgen hat
+Hook:
+Jeder Tag gleicht einem Kampf
+Den man verwundet übersteht
+Nach außen zeigt man keinen Schmerz
+Niemand soll die Wahrheit sehn
+Und jede Stunde die man lebt
+Muss man weiter aufrecht gehen
+Egal wie tief die Wunden sind
+Niemand soll die Wahrheit sehn</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1350,7 +2710,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Stadt der Engel</t>
+          <t>Leben, das du nicht kennst</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1360,14 +2720,84 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Strophe I: Bushido]:Ich schreibe den Track hier für die Ghettos, für die Blocks und GesocksIch bleib wach, komm in der Nacht, zieh dich ab wie ein SnobDeine Gesellschaft macht Geld man, ich will meinen AnteilZelle 139 und du triffst auf den RandsteinDen Smok den ich Atme, den Beton in der BrustDu willst Beef, keep it real, Junge komm ich habe LustHigh society, wir kommen denn Picasso CelavièTherapie, du hast Stil egal fick dich ins KnieRobin Hood bleibt ein Spast, ich klaue Geld und behalts'Keine Reue vor dem Richter denn ich werde niemals altSchlecht gelaunt, ich Schieb hass, disskutier und es klatschtFick mal dein Schein, mein Lifestyle provoziert Leute krassDeine Stadt ist am brennen, du wirst blass und du rennstObwohl ich auf dich kack, hängst du am Sack wie ein FanAssozial, Nachtlokal, komm vorbei ich will StreitEs gibt eins gegen eins, aber ich schlachte SchweinefleischProvokant, auf der street verlangen Schmuck auszuziehenGangsterrap für ganz Deutschland direkt aus BerlinGhettorap kriminell ich habe grade AppetittFress dich mit haut und haarn' Kokain-BatterieGhettosound ich seh am lauf, alles taub, ich bin draufIch machs auf deiner Couch, lass sie ziehen deine FrauUnd die Stadt der Engel bekommt BesuchIch komme in den Knast, doch bekomme dein Blut
-Hook Nyze:Er Marschierte durch die Hölle, in die Stadt der EngelAls er sie fand war die Stadt am brennenUnd du spürst diesen Hass, den ZornEines Mannes, der alles im Knast verlorHook (Bushido):Er Marschierte durch die Hölle, in die Stadt der EngelAls er sie fand war die Stadt am brennenUnd du spürst diesen Hass, den ZornEines Mannes, der alles im Knast verlor[Strophe II: Nyze &amp; (Bushido)]:Es sind die Jungs und der Staat brennt, Vollgas der FahrtwindDurch die Nacht Dildo in den Arsch und ihr Arsch brenntDeine Freundin ist hier und sie kann gleich bleibenEine Schelle und der gleiche Ton, wie das FreizeichenIch habe ein Base-Vertrag und er erfüllt sein ZweckDeine Nummer kenne ich nicht, scheiße man ich drück dich wegDu wirst älter und die Umwelt wird kleinMein Herz wird zu Stein(Es ist ein Umfeld)Ich weißUnd ich komme an den Punkt wenn es heißtEs ist Punkt oder StreitDen Punkt macht das BleiUnd deswegen mache ich druck bis ich weißUnd entscheide selbst, wer sich verpisst oder bleibtSonny,Nyze, EGJ das PhänomenPlatin-Rap, so schön, Schlagringe, PfeffersprayIch bin im Westen, und der Sommer war scheißeUnd im Club geht das Licht an, wenn wir uns streitenEs ist wirklich war, Drogen und der Alltag fliegtDu ziehst ne Nummer und stehst dann bis der Schalter schließtWir sind krank, sind die Sachen die wir sehenTrotzdem kriegt uns keiner von euch Pissern raus aus dem MilleuUnd das einzige was zählt ist die GesundheitUnd wir beten jeden Tag dafür, dass jeder hier Gesund bleibtDoch sie stechen Nadeln in die Venen und sie brennenUnd die Wachen spreizen unsere Flügel in der Stadt der Engel
-Hook Nyze:</t>
+          <t>[Songtext zu „Leben, das du nicht kennst“]
+[Part 1]
+Ich kann sehen wie die alte Frau beklaut wird
+Weil der Skrupel hier bei unserer Jugend ausstirbt
+Kannst du den Jungen sehen wie er sein Stoff vertickt
+Er wandert in den Knast doch er nimmt die Hoffnung mit
+Siehst du diesen anderen Jungen, der sich wieder schlägt
+Widerstand gegen diese Staatsgewalt, Krieger stehen
+Kannst du sehen wie sie gerade diese Kasse öffnen
+Wir machen sowas, weil wir in die 1. Klasse möchten
+So nimmt man den Smog der sich hier verteilt
+Ganz egal was passiert, glaub mir du bist hier allein
+Nimm das Papier und schreib einfach nur was Gangster ist
+Halt die Fresse ich bin einer der authentisch ist
+Kennst du das Gefühl, wenn die Kripo grad
+An deiner Türe klingelt, scheiße, sie sind wieder da
+Ich sag dir was passiert, wenn du nicht abkassierst
+Dann ficken sie dich Junge, diesen Smog atmet ihr
+[Hook]
+So ist das Leben das du nicht kennst
+So ist das Leben und für dich kämpfst
+Sogar wenn du im Gericht hängst
+So ist das Leben wenn es hart wird
+So ist das Leben wenn die ganzen Träume platzen
+Und es schwarz wird
+[Part 2]
+Du kannst hier sehen wie die Autotür geknackt wird
+Schau in den Spiegel Junge merkst du wie du blass wirst
+Mach die Augen auf ich zeig dir wie man Koks streckt
+Fällst du ins Gefängnis kommen solltest, Junge so ein Pech
+Kannst du sehen wie der Junge vor dem Richter steht
+Er möchte nicht hinein, von seinen Freunden sitzen zehn
+Sitzen zehn die das Tageslicht vermissen
+Die anderen zwanzig konnte man auf der Strasse nicht erwischen
+Atme tief ein, atme tief aus
+Gib auf, glaub mir meine Jungs sind agressiv drauf
+Das ist Strassenrap siehst du er wird vorgeführt
+Denkst du wirklich du wirst durch ne Cordon Sport zum Tier
+Und glaub mir wenn ich sag das ist der selbe Scheiss
+Überall nur Bullen und mein Fazit ist: "die Welt ist klein"
+So ist das Leben hier, jeder Tag ist grau
+Soviel scheiss Probleme doch ich zähle sie nicht auf
+[Hook]
+So ist das Leben das du nicht kennst
+So ist das Leben und für dich kämpfst
+Sogar wenn du im Gericht hängst
+So ist das Leben wenn es hart wird
+So ist das Leben wenn die ganzen Träume platzen
+Und es schwarz wird
+[Part 3]
+Wenn es schwarz wird, fällt dir auch das Denken schwer
+Sas hier ist meine Gegend, denkst du hier sind Menschen fair?
+Hier wirst du abgezogen und geschlagen, so siehts aus
+Ghettolife, Ghetto heisst: bring den Eltern Brot nach Haus
+Das ist wahr, das ist echt weil es hart ist hier
+Siehst du diesen alten Mann, der gerade auf der Strasse friert
+Sag mir nicht was fair ist alter, wir leben alle in ner scheiss Welt
+Du bist kriminell, du hast kein Geld
+Scheisse ich merk langsam wie es kalt wird
+Und diese Stahlkette die sich um den Hals schnürt
+Wenn du an meinem Grab stehst, bring mir rote Rosen
+Scheiss auf den Jackpot, ich hab das falsche Los gezogen
+Der Ascheregen fällt, die ganze Stadt sie ist jetzt grau
+Von oben wirkt jetzt einfach alles wie ein Bau
+Und wir bringen dir den Ärger man, das Gangsterding ist unser Werdegang
+Und was dich nicht umbringt macht dich härter man
+[Hook]
+So ist das Leben das du nicht kennst
+So ist das Leben und für dich kämpfst
+Sogar wenn du im Gericht hängst
+So ist das Leben wenn es hart wird
+So ist das Leben wenn die ganzen Träume platzen
+Und es schwarz wird</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://genius.com/Bushido-stadt-der-engel-lyrics</t>
+          <t>https://genius.com/Bushido-leben-das-du-nicht-kennst-lyrics</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1406,7 +2836,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Leben, das du nicht kennst</t>
+          <t>Outro (7)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1416,14 +2846,39 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Songtext zu „Leben, das du nicht kennst“][Part 1]Ich kann sehen wie die alte Frau beklaut wirdWeil der Skrupel hier bei unserer Jugend ausstirbtKannst du den Jungen sehen wie er sein Stoff verticktEr wandert in den Knast doch er nimmt die Hoffnung mitSiehst du diesen anderen Jungen, der sich wieder schlägtWiderstand gegen diese Staatsgewalt, Krieger stehenKannst du sehen wie sie gerade diese Kasse öffnenWir machen sowas, weil wir in die 1. Klasse möchtenSo nimmt man den Smog der sich hier verteiltGanz egal was passiert, glaub mir du bist hier alleinNimm das Papier und schreib einfach nur was Gangster istHalt die Fresse ich bin einer der authentisch istKennst du das Gefühl, wenn die Kripo gradAn deiner Türe klingelt, scheiße, sie sind wieder daIch sag dir was passiert, wenn du nicht abkassierstDann ficken sie dich Junge, diesen Smog atmet ihr[Hook]So ist das Leben das du nicht kennstSo ist das Leben und für dich kämpfstSogar wenn du im Gericht hängstSo ist das Leben wenn es hart wirdSo ist das Leben wenn die ganzen Träume platzenUnd es schwarz wird
-[Part 2]Du kannst hier sehen wie die Autotür geknackt wirdSchau in den Spiegel Junge merkst du wie du blass wirstMach die Augen auf ich zeig dir wie man Koks strecktFällst du ins Gefängnis kommen solltest, Junge so ein PechKannst du sehen wie der Junge vor dem Richter stehtEr möchte nicht hinein, von seinen Freunden sitzen zehnSitzen zehn die das Tageslicht vermissenDie anderen zwanzig konnte man auf der Strasse nicht erwischenAtme tief ein, atme tief ausGib auf, glaub mir meine Jungs sind agressiv draufDas ist Strassenrap siehst du er wird vorgeführtDenkst du wirklich du wirst durch ne Cordon Sport zum TierUnd glaub mir wenn ich sag das ist der selbe ScheissÜberall nur Bullen und mein Fazit ist: "die Welt ist klein"So ist das Leben hier, jeder Tag ist grauSoviel scheiss Probleme doch ich zähle sie nicht auf[Hook]So ist das Leben das du nicht kennstSo ist das Leben und für dich kämpfstSogar wenn du im Gericht hängstSo ist das Leben wenn es hart wirdSo ist das Leben wenn die ganzen Träume platzenUnd es schwarz wird
-[Part 3]Wenn es schwarz wird, fällt dir auch das Denken schwerSas hier ist meine Gegend, denkst du hier sind Menschen fair?Hier wirst du abgezogen und geschlagen, so siehts ausGhettolife, Ghetto heisst: bring den Eltern Brot nach HausDas ist wahr, das ist echt weil es hart ist hierSiehst du diesen alten Mann, der gerade auf der Strasse friertSag mir nicht was fair ist alter, wir leben alle in ner scheiss WeltDu bist kriminell, du hast kein GeldScheisse ich merk langsam wie es kalt wirdUnd diese Stahlkette die sich um den Hals schnürtWenn du an meinem Grab stehst, bring mir rote RosenScheiss auf den Jackpot, ich hab das falsche Los gezogenDer Ascheregen fällt, die ganze Stadt sie ist jetzt grauVon oben wirkt jetzt einfach alles wie ein BauUnd wir bringen dir den Ärger man, das Gangsterding ist unser WerdegangUnd was dich nicht umbringt macht dich härter man[Hook]So ist das Leben das du nicht kennstSo ist das Leben und für dich kämpfstSogar wenn du im Gericht hängstSo ist das Leben wenn es hart wirdSo ist das Leben wenn die ganzen Träume platzenUnd es schwarz wird</t>
+          <t>Ich hab' jetzt acht Jahre durchgerapptVier davon ging ich durch den DreckIn den ander'n vier hab' ich mich durchgesetzt
+Ich bin kein Typ, der wegen Gold auf überheblich machtIhr habt mich on top gesehen, ihr habt mich geseh'n im Knast
+Guck ich werd' jetzt 29, wer macht auf erwachsen?
+Meine Fans sind wie Geschwister, sie sind mit mir aufgewachsen
+Jetzt wird dieser Traum zerplatzen, mich macht die Scheiße müde
+Springe von der Klippe, aber Mama ich hab' keine Flügel
+Keine Flügel, die mich tragen und nach Hause bringen
+Kannst du's hören? Die Engel hören auf zu singen
+Hörst du auf zu singen? Sonny, hörst du auf zu rappen?
+Tut mir Leid, ich kann euch diesmal aus dem Alptraum nicht wecken
+Wenn der Teufel sagt: "Tu es", bleibt mir keine Wahl
+Scheiß' auf Geld, Geld ist nur Papier mit ein paar Zahl'n
+Er meint ich hätte meine Seele verkauft
+Das Leben zeichnet dich mit Narben, doch ich nehm' sie in Kauf
+Ich gebe nicht auf; Mama die Tapete ist grau
+Das Feuer in mir drin es wurde zu 'nem Regen aus Staub
+Dieser Junge fühl sich ausgebrannt
+Wo ist dieses Licht? Es ist ausgegangen
+Das geht an die Fans: Tausend Dank!
+Nichts im Leben ist hier selbstverständlich
+Ich bin nicht wie and're Stars, and're werden durch ihr Geld nur ängstlich
+Und ich laufe mit erhobenem HauptOhne Moral, Drogen und Frau'n
+Das hier bleibt Bushido
+Ich wollte einfach nur, dass meine Taten weiterleben
+Auch wenn ich mal aufhöre zu atmen
+Wird es kein Problem
+Guck her ich bleib' hier stehen, doch die Welt dreht sich weiter
+Dreht sich weiter, auch wenn ich dann kläglich scheiter'</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://genius.com/Bushido-leben-das-du-nicht-kennst-lyrics</t>
+          <t>https://genius.com/Bushido-outro-7-lyrics</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1454,60 +2909,6 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Bushido</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Outro (7)</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Ich hab' jetzt acht Jahre durchgerapptVier davon ging ich durch den DreckIn den ander'n vier hab' ich mich durchgesetztIch bin kein Typ, der wegen Gold auf überheblich machtIhr habt mich on top gesehen, ihr habt mich geseh'n im KnastGuck ich werd' jetzt 29, wer macht auf erwachsen?Meine Fans sind wie Geschwister, sie sind mit mir aufgewachsenJetzt wird dieser Traum zerplatzen, mich macht die Scheiße müdeSpringe von der Klippe, aber Mama ich hab' keine FlügelKeine Flügel, die mich tragen und nach Hause bringenKannst du's hören? Die Engel hören auf zu singenHörst du auf zu singen? Sonny, hörst du auf zu rappen?Tut mir Leid, ich kann euch diesmal aus dem Alptraum nicht weckenWenn der Teufel sagt: "Tu es", bleibt mir keine WahlScheiß' auf Geld, Geld ist nur Papier mit ein paar Zahl'nEr meint ich hätte meine Seele verkauftDas Leben zeichnet dich mit Narben, doch ich nehm' sie in KaufIch gebe nicht auf; Mama die Tapete ist grauDas Feuer in mir drin es wurde zu 'nem Regen aus StaubDieser Junge fühl sich ausgebranntWo ist dieses Licht? Es ist ausgegangenDas geht an die Fans: Tausend Dank!Nichts im Leben ist hier selbstverständlichIch bin nicht wie and're Stars, and're werden durch ihr Geld nur ängstlichUnd ich laufe mit erhobenem HauptOhne Moral, Drogen und Frau'nDas hier bleibt BushidoIch wollte einfach nur, dass meine Taten weiterlebenAuch wenn ich mal aufhöre zu atmenWird es kein ProblemGuck her ich bleib' hier stehen, doch die Welt dreht sich weiterDreht sich weiter, auch wenn ich dann kläglich scheiter'</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>https://genius.com/Bushido-outro-7-lyrics</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Released August 31, 2007
-Distribution
-      Sony BMG
-Copyright ©
-      ersguterjunge
-Phonographic Copyright ℗
-      ersguterjunge
-Artwork
-      Ben Baumgarten
-Photography
-      Mat Hennek
-Label
-      ersguterjunge
-Featuring
-      Chakuza, Kay One, Nyze &amp; 2 more
-Producers
-      Auditory, Bazzazian, Beatlefield &amp; 8 more
-Writers
-      Bushido, Chakuza, Kay One &amp; 3 more
-Bass
-      Markus Runzheimer
-Copyright ©
-      ersguterjunge</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
